--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -190,7 +190,7 @@
     <t xml:space="preserve">{ABILITY_CUTE_CHARM,ABILITY_NONE}</t>
   </si>
   <si>
-    <t xml:space="preserve">.hiddenAbility</t>
+    <t xml:space="preserve">.abilityHidden</t>
   </si>
   <si>
     <t xml:space="preserve">ABILITY_DROUGHT</t>
@@ -315,11 +315,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -335,12 +336,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,12 +380,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,16 +393,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -429,15 +420,15 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
   </cols>
   <sheetData>
@@ -779,7 +770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -799,7 +790,7 @@
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -208,13 +208,13 @@
     <t xml:space="preserve">LEVEL_UP_MOVE</t>
   </si>
   <si>
+    <t xml:space="preserve">Play Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tail Whip</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tail Whip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play Nice</t>
   </si>
   <si>
     <t xml:space="preserve">Sweet Kiss</t>
@@ -420,8 +420,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">evolves</t>
   </si>
   <si>
-    <t xml:space="preserve">EVO_LEVEL</t>
+    <t xml:space="preserve">EVO_FRIENDSHIP</t>
   </si>
   <si>
     <t xml:space="preserve">pokedex_entry_line1</t>
@@ -428,7 +428,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
   </cols>
   <sheetData>
@@ -447,11 +447,11 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -459,69 +459,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -529,7 +529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -537,7 +537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -545,7 +545,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -561,7 +561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -577,7 +577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -585,7 +585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -601,7 +601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -609,7 +609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -617,7 +617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -625,7 +625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -633,7 +633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -641,7 +641,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -649,7 +649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -706,7 +706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -714,7 +714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -722,7 +722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
@@ -730,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -738,7 +738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
@@ -746,7 +746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -802,18 +802,18 @@
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
       <c r="B45" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="B46" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -846,7 +846,7 @@
       <c r="B47" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -854,15 +854,15 @@
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -870,15 +870,15 @@
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -894,7 +894,7 @@
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -918,71 +918,71 @@
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -990,15 +990,15 @@
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="A67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1014,15 +1014,15 @@
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="2" t="s">
         <v>94</v>
       </c>
     </row>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -103,15 +104,15 @@
     <t xml:space="preserve">.baseDefense </t>
   </si>
   <si>
+    <t xml:space="preserve">.baseSpAttack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.baseSpDefense </t>
+  </si>
+  <si>
     <t xml:space="preserve">.baseSpeed </t>
   </si>
   <si>
-    <t xml:space="preserve">.baseSpAttack </t>
-  </si>
-  <si>
-    <t xml:space="preserve">.baseSpDefense </t>
-  </si>
-  <si>
     <t xml:space="preserve">.type1 </t>
   </si>
   <si>
@@ -160,7 +161,7 @@
     <t xml:space="preserve">.genderRatio </t>
   </si>
   <si>
-    <t xml:space="preserve">PERCENT_FEMALE(50)</t>
+    <t xml:space="preserve">PERCENT_FEMALE(75)</t>
   </si>
   <si>
     <t xml:space="preserve">.eggCycles </t>
@@ -178,7 +179,7 @@
     <t xml:space="preserve">.eggGroup1 </t>
   </si>
   <si>
-    <t xml:space="preserve">EGG_GROUP_FIELD</t>
+    <t xml:space="preserve">EGG_GROUP_UNDISCOVERED</t>
   </si>
   <si>
     <t xml:space="preserve">.eggGroup2 </t>
@@ -220,7 +221,25 @@
     <t xml:space="preserve">Sweet Kiss</t>
   </si>
   <si>
-    <t xml:space="preserve">Nasty Plot</t>
+    <t xml:space="preserve">Calm Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incinerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Burst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrasensory</t>
   </si>
   <si>
     <t xml:space="preserve">EGG_MOVE</t>
@@ -238,15 +257,9 @@
     <t xml:space="preserve">Flame Charge</t>
   </si>
   <si>
-    <t xml:space="preserve">Hypnosis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roar</t>
   </si>
   <si>
-    <t xml:space="preserve">Flame Burst</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lava Plume</t>
   </si>
   <si>
@@ -305,6 +318,93 @@
   </si>
   <si>
     <t xml:space="preserve">TM06 Toxic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUDDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROWLITHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUPPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A playful and mischievous Pokémon. Though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clumsy at birth, Puddi will quickly become</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energetic and agile. It bonds strongly with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its caretaker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERCENT_FEMALE(25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROWTH_SLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_JUSTIFIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flame Wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Breath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retaliate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamethrower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thrash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dougle Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Kick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychic Fangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunder Fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM46 Thief</t>
   </si>
 </sst>
 </file>
@@ -380,7 +480,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,6 +501,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -410,6 +514,83 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,7 +599,730 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 200</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -437,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -478,11 +1382,11 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,11 +1394,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,11 +1406,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,11 +1418,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,7 +1430,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +1478,11 @@
         <v>24</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +1490,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +1498,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +1506,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +1514,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,7 +1570,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -679,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,7 +1611,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +1627,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +1651,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,8 +1698,7 @@
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="B42" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,10 +1729,10 @@
         <v>61</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,10 +1740,10 @@
         <v>61</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,216 +1751,295 @@
         <v>61</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">Thrash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dougle Edge</t>
   </si>
   <si>
     <t xml:space="preserve">Double Kick</t>
@@ -602,7 +599,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,8 +1321,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1852,7 +1849,7 @@
         <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1857,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,7 +1873,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1881,7 @@
         <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,7 +2025,7 @@
         <v>90</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -329,7 +329,7 @@
     <t xml:space="preserve">PUPPY</t>
   </si>
   <si>
-    <t xml:space="preserve">A playful and mischievous Pokémon. Though</t>
+    <t xml:space="preserve">A playful and mischievous POKéMON. Though</t>
   </si>
   <si>
     <t xml:space="preserve">clumsy at birth, Puddi will quickly become</t>
@@ -477,7 +477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -496,10 +496,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1321,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,7 +1691,7 @@
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2036,7 +2032,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -29,6 +29,12 @@
     <t xml:space="preserve">TRIFOX</t>
   </si>
   <si>
+    <t xml:space="preserve">display_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trifox</t>
+  </si>
+  <si>
     <t xml:space="preserve">where</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t xml:space="preserve">PUDDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puddi</t>
   </si>
   <si>
     <t xml:space="preserve">GROWLITHE</t>
@@ -592,10 +601,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,15 +630,15 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -638,13 +647,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,11 +655,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>40</v>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +685,7 @@
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,80 +697,84 @@
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>30</v>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>25</v>
@@ -773,34 +782,34 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,69 +817,69 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -878,10 +887,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,24 +913,24 @@
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,15 +946,15 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,135 +977,135 @@
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>74</v>
@@ -1104,63 +1113,63 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>81</v>
@@ -1168,71 +1177,71 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>91</v>
@@ -1240,62 +1249,70 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -1315,7 +1332,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1334,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,18 +1359,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,13 +1378,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,11 +1386,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>41</v>
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,11 +1400,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,11 +1412,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,119 +1424,123 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>40</v>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>40</v>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,53 +1548,53 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -1585,7 +1602,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -1593,7 +1610,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -1601,10 +1618,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,7 +1629,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,31 +1637,31 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,7 +1669,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,15 +1677,15 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1693,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,277 +1701,277 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>91</v>
@@ -1962,70 +1979,78 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Clone_Charmander" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="151">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -411,6 +412,69 @@
   </si>
   <si>
     <t xml:space="preserve">TM46 Thief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_CHARMANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEOXYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARMELEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVO_LEVEL_UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERCENT_FEMALE(12.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROWTH_MEDIUM_SLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG_GROUP_MONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG_GROUP_DRAGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_TOUGH_CLAWS,ABILITY_NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_TOUGH_CLAWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury Swipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crush Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will-O-Wisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flare Blitz</t>
   </si>
 </sst>
 </file>
@@ -1334,6 +1398,744 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -1351,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,10 +2169,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,13 +2188,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,47 +2202,38 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +2241,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,11 +2289,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 200</v>
+        <v>total: 309</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +2309,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +2325,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +2333,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +2438,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +2462,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +2470,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +2478,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +2486,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,7 +2494,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +2573,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>117</v>
@@ -1794,7 +2587,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +2598,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,26 +2628,32 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +2661,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +2669,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +2677,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +2685,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +2693,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,23 +2701,23 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +2725,7 @@
         <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,7 +2733,7 @@
         <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,7 +2741,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +2749,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,7 +2757,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +2765,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,23 +2773,23 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +2797,7 @@
         <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2805,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +2813,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,7 +2821,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,7 +2829,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +2837,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,6 +2845,22 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>129</v>
       </c>
     </row>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -475,6 +475,24 @@
   </si>
   <si>
     <t xml:space="preserve">Flare Blitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerial Ace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaze Kick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Kick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Punch</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2639,7 +2657,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>149</v>
@@ -2661,7 +2679,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,7 +2687,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,7 +2695,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,7 +2703,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2719,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2727,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2735,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2831,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,7 +2839,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,7 +2847,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,31 +2855,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="156">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -432,19 +432,16 @@
     <t xml:space="preserve">CHARMELEON</t>
   </si>
   <si>
-    <t xml:space="preserve">EVO_LEVEL_UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">EVO_LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An experimental species created by Dr. Fuji.</t>
   </si>
   <si>
     <t xml:space="preserve">9.2</t>
   </si>
   <si>
     <t xml:space="preserve">PERCENT_FEMALE(12.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROWTH_MEDIUM_SLOW</t>
   </si>
   <si>
     <t xml:space="preserve">EGG_GROUP_MONSTER</t>
@@ -1417,7 +1414,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2154,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2224,7 +2221,7 @@
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,7 +2477,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2485,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2493,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,7 +2501,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,7 +2509,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2635,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,7 +2646,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2657,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +2676,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,7 +2684,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,7 +2692,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,7 +2716,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,7 +2724,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +2732,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Clone_Charmander" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Clone_Charmeleon" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="161">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -429,13 +430,22 @@
     <t xml:space="preserve">CLONE</t>
   </si>
   <si>
-    <t xml:space="preserve">CHARMELEON</t>
+    <t xml:space="preserve">CLONE_CHARMELEON</t>
   </si>
   <si>
     <t xml:space="preserve">EVO_LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">An experimental species created by Dr. Fuji.</t>
+    <t xml:space="preserve">An experimental POKéMON species created by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Fuji. It has a good endurance and it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attacks viciously with its fangs and claws.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will defend itself until exhausted.</t>
   </si>
   <si>
     <t xml:space="preserve">9.2</t>
@@ -490,6 +500,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mega Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARIZARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4</t>
   </si>
 </sst>
 </file>
@@ -2151,8 +2167,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2221,34 +2237,43 @@
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,11 +2329,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 309</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,7 +2349,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,7 +2357,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2365,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2373,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2478,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2510,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +2518,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +2526,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,7 +2534,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2638,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2660,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2671,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,7 +2682,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,7 +2693,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2701,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +2709,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2717,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +2741,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2749,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +2757,731 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="159">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -304,28 +304,25 @@
     <t xml:space="preserve">TM_MOVE</t>
   </si>
   <si>
-    <t xml:space="preserve">TM45 Attract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM27 Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM32 Double Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM35 Flamethrower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM17 Protect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM05 Roar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM11 Sunny Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM06 Toxic</t>
+    <t xml:space="preserve">Attract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamethrower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunny Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxic</t>
   </si>
   <si>
     <t xml:space="preserve">PUDDI</t>
@@ -391,9 +388,6 @@
     <t xml:space="preserve">Retaliate</t>
   </si>
   <si>
-    <t xml:space="preserve">Flamethrower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covet</t>
   </si>
   <si>
@@ -412,7 +406,7 @@
     <t xml:space="preserve">Thunder Fang</t>
   </si>
   <si>
-    <t xml:space="preserve">TM46 Thief</t>
+    <t xml:space="preserve">Thief</t>
   </si>
   <si>
     <t xml:space="preserve">CLONE_CHARMANDER</t>
@@ -698,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1387,7 +1381,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1389,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1397,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1429,8 +1423,8 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1495,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -1507,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -1519,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -1531,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -1551,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1734,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +1758,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1790,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1889,7 +1883,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +1935,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,7 +1951,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +1983,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,7 +1991,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,7 +2111,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,7 +2119,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2135,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2167,8 +2161,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2184,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,10 +2194,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
@@ -2233,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -2245,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -2257,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -2269,7 +2263,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -2289,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,7 +2472,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2504,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2512,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2520,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2528,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2588,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2632,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,7 +2643,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2654,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +2665,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,7 +2676,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,7 +2687,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2695,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2703,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2711,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2719,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,7 +2727,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2735,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,7 +2743,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2751,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2863,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,7 +2871,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2930,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +2949,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>36</v>
@@ -3013,7 +3007,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,7 +3196,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,7 +3228,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,7 +3236,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,7 +3244,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,7 +3252,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +3323,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,7 +3345,7 @@
         <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,7 +3356,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +3367,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +3378,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,7 +3389,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,7 +3400,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +3411,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3419,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +3427,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3435,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3443,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,7 +3451,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,7 +3459,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3467,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,7 +3475,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,7 +3587,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,7 +3595,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="171">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -494,6 +494,42 @@
   </si>
   <si>
     <t xml:space="preserve">Mega Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brick Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Smash</t>
   </si>
   <si>
     <t xml:space="preserve">CHARIZARD</t>
@@ -2159,10 +2195,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2872,6 +2908,102 @@
       </c>
       <c r="C79" s="2" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2895,10 +3027,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2949,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -3007,7 +3139,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,6 +3728,102 @@
       </c>
       <c r="C79" s="2" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="175">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -533,6 +533,18 @@
   </si>
   <si>
     <t xml:space="preserve">CHARIZARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has a harsh and volatile personality. In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exchange for its wicked physical attacks, it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has less good skills with fire. This POKéMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is especially difficult to tame.</t>
   </si>
   <si>
     <t xml:space="preserve">26.4</t>
@@ -2197,8 +2209,8 @@
   </sheetPr>
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3029,8 +3041,8 @@
   </sheetPr>
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3065,7 +3077,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,36 +3106,48 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +3163,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Clone_Charmander" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Clone_Charmeleon" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Clone_Charizard" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="188">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -496,6 +497,9 @@
     <t xml:space="preserve">Mega Punch</t>
   </si>
   <si>
+    <t xml:space="preserve">Outrage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dragon Claw</t>
   </si>
   <si>
@@ -532,7 +536,10 @@
     <t xml:space="preserve">Rock Smash</t>
   </si>
   <si>
-    <t xml:space="preserve">CHARIZARD</t>
+    <t xml:space="preserve">Charmeleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_CHARIZARD</t>
   </si>
   <si>
     <t xml:space="preserve">It has a harsh and volatile personality. In</t>
@@ -548,6 +555,39 @@
   </si>
   <si>
     <t xml:space="preserve">26.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This POKéMON is brutal and merciless. It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will keep attacking until explicitly told to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop. Its claws are so sharp that one slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is enough to defeat most opponents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_FLYING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wing Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky Drop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Fire</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2247,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2804,10 +2844,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,7 +2855,7 @@
         <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,7 +2863,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +2871,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,7 +2879,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,7 +2887,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +2895,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,7 +2903,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,15 +2911,15 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,7 +2927,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,7 +2935,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,7 +2943,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,7 +2951,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,7 +2959,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,7 +2967,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,6 +3056,14 @@
       </c>
       <c r="C91" s="2" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3087,847 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3058,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3965,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,218 +3978,212 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>178</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>130</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -3309,7 +4191,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -3317,7 +4199,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -3325,15 +4207,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -3341,90 +4223,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,10 +4339,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,10 +4350,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +4361,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,10 +4372,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,10 +4383,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,10 +4394,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,10 +4405,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,7 +4416,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>147</v>
@@ -3542,10 +4427,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,7 +4441,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,7 +4449,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>150</v>
@@ -3572,18 +4457,24 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,7 +4482,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,7 +4490,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,7 +4498,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,7 +4506,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,7 +4514,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,31 +4522,31 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,7 +4554,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,7 +4562,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,7 +4570,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,7 +4586,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3703,31 +4594,31 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +4626,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,7 +4634,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,7 +4642,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,7 +4650,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,7 +4658,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,7 +4666,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,7 +4674,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,7 +4682,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,7 +4690,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +4706,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +4714,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +4722,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,7 +4730,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,11 +4738,35 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Clone_Charmander" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Clone_Charmeleon" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Clone_Charizard" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Clone_Bulbasaur" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="228">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -588,6 +589,126 @@
   </si>
   <si>
     <t xml:space="preserve">Sacred Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_BULBASAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulbasaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVYSAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Fuji. It has a strong intuition and can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anticipate its enemy’s attacks. It will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider its strategy before moving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_GRASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_POISON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG_GROUP_GRASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_REGENERATOR,ABILITY_NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_REGENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY_COLOR_GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leech Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aromatherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf Tornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet Scent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge Bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razor Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giga Drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amnesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury Cutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Slap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swords Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
   </si>
 </sst>
 </file>
@@ -3929,6 +4050,865 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G96"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -3946,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,7 +4945,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,34 +4958,36 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -4014,168 +4996,172 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -4183,7 +5169,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -4191,7 +5177,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -4199,23 +5185,23 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -4223,93 +5209,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,10 +5322,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,10 +5333,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,10 +5344,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,10 +5355,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,10 +5366,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,10 +5377,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,10 +5388,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,10 +5399,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,10 +5410,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,10 +5421,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,10 +5432,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,21 +5443,18 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,7 +5462,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +5470,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +5478,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,7 +5486,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,7 +5510,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,7 +5518,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,7 +5526,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +5542,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +5550,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,7 +5558,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,7 +5566,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,7 +5574,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,7 +5582,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,7 +5590,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,28 +5598,28 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>96</v>
@@ -4650,7 +5630,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +5638,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4666,7 +5646,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,7 +5654,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +5662,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,7 +5670,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +5678,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,7 +5686,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,7 +5694,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,7 +5702,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,7 +5710,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +5718,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,7 +5726,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,7 +5734,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4762,11 +5742,27 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="Clone_Charmeleon" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Clone_Charizard" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Clone_Bulbasaur" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Clone_Ivysaur" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Clone_Venusaur" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="245">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -591,22 +593,28 @@
     <t xml:space="preserve">Sacred Fire</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyper Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Blast</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_BULBASAUR</t>
   </si>
   <si>
     <t xml:space="preserve">Bulbasaur</t>
   </si>
   <si>
-    <t xml:space="preserve">IVYSAUR</t>
+    <t xml:space="preserve">CLONE_IVYSAUR</t>
   </si>
   <si>
     <t xml:space="preserve">Dr. Fuji. It has a strong intuition and can</t>
   </si>
   <si>
-    <t xml:space="preserve">anticipate its enemy’s attacks. It will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consider its strategy before moving.</t>
+    <t xml:space="preserve">anticipate its enemy’s attacks. It will plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its strategy far ahead before moving.</t>
   </si>
   <si>
     <t xml:space="preserve">TYPE_GRASS</t>
@@ -654,7 +662,7 @@
     <t xml:space="preserve">Ingrain</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy Ball</t>
+    <t xml:space="preserve">Giga Drain</t>
   </si>
   <si>
     <t xml:space="preserve">Sweet Scent</t>
@@ -681,9 +689,6 @@
     <t xml:space="preserve">Spore</t>
   </si>
   <si>
-    <t xml:space="preserve">Giga Drain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amnesia</t>
   </si>
   <si>
@@ -709,6 +714,54 @@
   </si>
   <si>
     <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivysaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENUSAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has a devious and cunning nature. It can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easily predict its opponents tactic and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">react pre-emptively. The most insightful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intividuals surpass humans in intelligence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_VENUSAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venusaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A masterful tactician, it can foresee the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">events of a battle before it even starts. It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will make a surprising move and then deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a single powerful blow to defeat the enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed Flare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthquake</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3263,7 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4048,10 +4101,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C96" activeCellId="0" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4884,6 +4937,22 @@
       </c>
       <c r="C94" s="2" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4909,6 +4978,1756 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 320</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G96"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G101"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -4926,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,7 +6764,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,210 +6777,204 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>238</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>195</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -5169,7 +6982,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -5177,31 +6990,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -5209,90 +7022,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>199</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5303,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,10 +7138,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,10 +7149,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,10 +7160,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,10 +7171,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,10 +7182,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5377,10 +7193,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,10 +7204,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,10 +7215,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,10 +7226,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +7237,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -5432,10 +7248,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,34 +7259,43 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,7 +7327,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +7335,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,7 +7343,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,31 +7351,31 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,7 +7383,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5566,7 +7391,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,7 +7399,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,7 +7407,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,7 +7415,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,7 +7423,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5606,7 +7431,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +7439,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>225</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,20 +7447,20 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>226</v>
@@ -5643,10 +7468,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +7479,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,7 +7487,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +7495,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5678,7 +7503,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,7 +7511,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +7519,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,7 +7527,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,7 +7535,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +7543,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +7551,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,7 +7559,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +7567,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,7 +7575,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,11 +7583,51 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>227</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Clone_Charmander" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Clone_Charmeleon" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Clone_Charizard" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Clone_Bulbasaur" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Clone_Ivysaur" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Clone_Venusaur" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Clone_Bulbasaur" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Clone_Ivysaur" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Clone_Venusaur" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Clone_Charmander" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Clone_Charmeleon" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Clone_Charizard" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Clone_Squirtle" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="257">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -413,30 +414,222 @@
     <t xml:space="preserve">Thief</t>
   </si>
   <si>
+    <t xml:space="preserve">CLONE_BULBASAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulbasaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEOXYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_IVYSAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVO_LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An experimental POKéMON species created by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Fuji. It has a strong intuition and can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anticipate its enemy’s attacks. It will plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its strategy far ahead before moving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_GRASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_POISON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERCENT_FEMALE(12.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG_GROUP_MONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG_GROUP_GRASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_REGENERATOR,ABILITY_NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_REGENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY_COLOR_GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid Spray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leech Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aromatherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf Tornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giga Drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet Scent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge Bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razor Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Whip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amnesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury Cutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Slap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swords Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivysaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENUSAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has a devious and cunning nature. It can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easily predict its opponents tactic and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">react pre-emptively. The most insightful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intividuals surpass humans in intelligence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_VENUSAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venusaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A masterful tactician, it can foresee the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">events of a battle before it even starts. It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will make a surprising move and then deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a single powerful blow to defeat the enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed Flare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper Beam</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_CHARMANDER</t>
   </si>
   <si>
     <t xml:space="preserve">Charmander</t>
   </si>
   <si>
-    <t xml:space="preserve">after</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEOXYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLONE_CHARMELEON</t>
   </si>
   <si>
-    <t xml:space="preserve">EVO_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An experimental POKéMON species created by</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. Fuji. It has a good endurance and it</t>
   </si>
   <si>
@@ -449,12 +642,6 @@
     <t xml:space="preserve">9.2</t>
   </si>
   <si>
-    <t xml:space="preserve">PERCENT_FEMALE(12.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG_GROUP_MONSTER</t>
-  </si>
-  <si>
     <t xml:space="preserve">EGG_GROUP_DRAGON</t>
   </si>
   <si>
@@ -464,6 +651,9 @@
     <t xml:space="preserve">ABILITY_TOUGH_CLAWS</t>
   </si>
   <si>
+    <t xml:space="preserve">BODY_COLOR_RED</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fury Swipes</t>
   </si>
   <si>
@@ -506,12 +696,6 @@
     <t xml:space="preserve">Dragon Claw</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidden Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frustration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iron Tail</t>
   </si>
   <si>
@@ -524,18 +708,6 @@
     <t xml:space="preserve">Facade</t>
   </si>
   <si>
-    <t xml:space="preserve">Secret Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rock Smash</t>
   </si>
   <si>
@@ -578,190 +750,55 @@
     <t xml:space="preserve">129.7</t>
   </si>
   <si>
-    <t xml:space="preserve">TYPE_FLYING</t>
+    <t xml:space="preserve">TYPE_DRAGON</t>
   </si>
   <si>
     <t xml:space="preserve">Wing Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Sky Drop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Close Combat</t>
   </si>
   <si>
+    <t xml:space="preserve">Dragon Rush</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sacred Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyper Beam</t>
+    <t xml:space="preserve">Dual Chop</t>
   </si>
   <si>
     <t xml:space="preserve">Fire Blast</t>
   </si>
   <si>
-    <t xml:space="preserve">CLONE_BULBASAUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbasaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLONE_IVYSAUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Fuji. It has a strong intuition and can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anticipate its enemy’s attacks. It will plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">its strategy far ahead before moving.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE_GRASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE_POISON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG_GROUP_GRASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ABILITY_REGENERATOR,ABILITY_NONE}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABILITY_REGENERATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BODY_COLOR_GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acid Spray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vine Whip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leech Seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aromatherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaf Tornado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poison Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giga Drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet Scent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sludge Bomb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petal Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razor Leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Whip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amnesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sludge Wave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defense Curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fury Cutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mud Slap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swords Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullet Seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivysaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENUSAUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It has a devious and cunning nature. It can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">easily predict its opponents tactic and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">react pre-emptively. The most insightful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intividuals surpass humans in intelligence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLONE_VENUSAUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venusaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A masterful tactician, it can foresee the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">events of a battle before it even starts. It</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will make a surprising move and then deliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a single powerful blow to defeat the enemy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed Flare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earthquake</t>
+    <t xml:space="preserve">CLONE_SQUIRTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squirtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARTORTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Fuji. It has a stable nature and will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remain calm in tough situations. It retreats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into its shell when in danger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_WATER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_BULLETPROOF,ABILITY_NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_BULLETPROOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY_COLOR_BLUE</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2505,7 +2542,7 @@
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,7 +2554,7 @@
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2566,7 @@
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,7 +2622,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
@@ -2597,7 +2634,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2642,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2650,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,7 +2666,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2674,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +2682,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,15 +2708,15 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -2702,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +2771,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2803,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2811,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2819,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2827,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2835,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,10 +2873,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +2884,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,10 +2906,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +2917,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,10 +2928,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,10 +2939,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,10 +2950,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +2961,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,10 +2972,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,18 +2983,21 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,7 +3005,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,7 +3013,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,7 +3021,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +3029,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,7 +3045,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,7 +3053,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,23 +3061,23 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,7 +3085,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3093,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,7 +3101,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3109,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3117,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3125,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,47 +3133,47 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,7 +3189,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3197,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3205,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3213,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,7 +3221,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3229,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,7 +3237,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3245,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,7 +3253,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,7 +3261,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,7 +3269,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,7 +3277,39 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3261,9 +3333,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3288,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -3329,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -3341,11 +3413,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,11 +3425,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,11 +3437,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,7 +3449,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3457,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3497,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
@@ -3437,7 +3509,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3517,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3525,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3541,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,7 +3549,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3557,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,15 +3583,15 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -3542,7 +3614,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3646,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,7 +3678,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3686,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,7 +3694,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3702,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3710,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,10 +3759,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,10 +3770,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,10 +3781,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,10 +3792,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,10 +3803,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3814,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,10 +3825,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,10 +3836,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,10 +3847,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3786,18 +3858,21 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +3880,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,7 +3888,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,7 +3896,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3904,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,7 +3912,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,7 +3920,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,7 +3928,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,23 +3936,23 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,7 +3960,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3968,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +3976,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,7 +3984,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,7 +3992,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +4000,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,47 +4008,47 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,7 +4064,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4072,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,7 +4080,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4088,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,7 +4096,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,7 +4104,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,7 +4112,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4120,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,7 +4128,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4136,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,7 +4144,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,7 +4152,39 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4101,10 +4208,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C96" activeCellId="0" sqref="C96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4120,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,11 +4262,11 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -4179,11 +4286,11 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,11 +4298,11 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,7 +4310,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,7 +4358,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
@@ -4263,7 +4370,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4378,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4279,7 +4386,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +4394,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,7 +4402,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,7 +4410,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4418,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,15 +4444,15 @@
       <c r="B25" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -4368,7 +4475,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +4507,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4539,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,7 +4547,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4555,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,7 +4563,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,7 +4571,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,10 +4620,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,10 +4631,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,10 +4653,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,10 +4664,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,10 +4675,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,10 +4686,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4697,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4601,10 +4708,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,10 +4719,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,10 +4730,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,10 +4741,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,26 +4752,32 @@
         <v>63</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4785,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4793,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4801,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4809,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +4817,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +4825,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,31 +4833,31 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4865,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +4873,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4881,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4889,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4897,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,55 +4905,55 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4961,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4969,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4977,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +4985,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +4993,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +5001,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +5009,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +5017,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +5025,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +5033,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +5041,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +5049,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +5057,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +5065,47 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>189</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4976,10 +5129,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4995,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5014,7 +5167,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -5056,11 +5209,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,11 +5221,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,11 +5233,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5245,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,7 +5253,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,7 +5293,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
@@ -5152,7 +5305,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5313,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5321,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5329,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5337,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5345,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5353,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5226,15 +5379,15 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -5257,7 +5410,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,7 +5442,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,7 +5474,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,7 +5482,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,7 +5490,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5498,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,7 +5506,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5544,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,10 +5555,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,10 +5577,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,10 +5588,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,7 +5599,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>209</v>
@@ -5457,10 +5610,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,10 +5621,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,10 +5632,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,10 +5643,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,7 +5654,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>213</v>
@@ -5509,10 +5662,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>214</v>
@@ -5523,7 +5673,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5681,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,7 +5689,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,7 +5697,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,23 +5729,23 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,7 +5753,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,7 +5761,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,7 +5769,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5777,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,7 +5785,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,7 +5793,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,47 +5801,47 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +5857,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,7 +5865,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,7 +5873,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,7 +5881,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,7 +5889,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5747,7 +5897,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,7 +5905,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,7 +5913,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +5921,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,7 +5929,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,7 +5937,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,39 +5945,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5851,9 +5969,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5870,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,7 +6007,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,7 +6023,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -5919,7 +6037,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -5931,11 +6049,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,11 +6061,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,11 +6073,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +6085,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,7 +6093,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,7 +6133,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
@@ -6027,7 +6145,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,7 +6153,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,7 +6161,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,7 +6169,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,7 +6177,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,7 +6185,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,7 +6193,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,15 +6219,15 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -6132,7 +6250,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,7 +6282,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,7 +6314,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6204,7 +6322,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,7 +6330,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,7 +6338,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6346,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,10 +6395,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,10 +6406,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,10 +6417,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,10 +6428,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,7 +6439,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>209</v>
@@ -6332,10 +6450,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,10 +6461,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,10 +6472,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,10 +6483,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,7 +6494,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>213</v>
@@ -6384,10 +6502,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>214</v>
@@ -6398,7 +6513,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6406,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,7 +6529,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,7 +6537,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,23 +6569,23 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,7 +6593,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,7 +6601,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6494,7 +6609,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6617,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,7 +6625,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6518,7 +6633,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,47 +6641,47 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6582,7 +6697,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6705,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,7 +6713,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,7 +6721,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,7 +6729,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,7 +6737,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,7 +6745,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6638,7 +6753,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +6761,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6769,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6662,7 +6777,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,39 +6785,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6726,7 +6809,901 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G98"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6745,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,7 +7741,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,204 +7754,210 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>41</v>
+        <v>249</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>110</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 420</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -6982,7 +7965,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -6990,31 +7973,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -7022,93 +8005,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,10 +8118,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,10 +8129,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,10 +8140,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,10 +8151,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,10 +8162,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,10 +8173,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,10 +8184,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,10 +8195,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,10 +8206,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +8217,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -7248,10 +8228,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,43 +8239,34 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,7 +8274,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,7 +8282,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,7 +8290,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,7 +8298,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,7 +8306,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,7 +8314,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,31 +8322,31 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,7 +8354,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,7 +8362,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,7 +8370,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,7 +8378,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,7 +8386,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,7 +8394,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,7 +8402,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,7 +8410,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,31 +8418,31 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,7 +8450,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,7 +8458,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,7 +8466,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7503,7 +8474,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,7 +8482,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,7 +8490,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +8498,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +8506,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +8514,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,7 +8522,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,7 +8530,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,7 +8538,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,7 +8546,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,51 +8554,11 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="294">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -771,6 +771,9 @@
     <t xml:space="preserve">Fire Blast</t>
   </si>
   <si>
+    <t xml:space="preserve">Fly</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_SQUIRTLE</t>
   </si>
   <si>
@@ -780,7 +783,7 @@
     <t xml:space="preserve">WARTORTLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Fuji. It has a stable nature and will</t>
+    <t xml:space="preserve">Dr. Fuji. It has a steady nature and will</t>
   </si>
   <si>
     <t xml:space="preserve">remain calm in tough situations. It retreats</t>
@@ -789,9 +792,15 @@
     <t xml:space="preserve">into its shell when in danger.</t>
   </si>
   <si>
+    <t xml:space="preserve">10.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">TYPE_WATER</t>
   </si>
   <si>
+    <t xml:space="preserve">EGG_GROUP_WATER_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ABILITY_BULLETPROOF,ABILITY_NONE}</t>
   </si>
   <si>
@@ -799,6 +808,108 @@
   </si>
   <si>
     <t xml:space="preserve">BODY_COLOR_BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Withdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid Spin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyro Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqua Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Smash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqua Jet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqua Ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror Coat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muddy Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Spout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icy Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seismic Toss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dive</t>
   </si>
 </sst>
 </file>
@@ -6809,7 +6920,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -7680,6 +7791,14 @@
       </c>
       <c r="C98" s="2" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7703,7 +7822,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -7722,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7730,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,7 +7876,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -7783,7 +7902,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -7795,7 +7914,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -7807,7 +7926,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -7819,7 +7938,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,7 +7946,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,7 +7998,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,7 +8006,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,7 +8014,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7903,7 +8022,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7911,7 +8030,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,7 +8038,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7927,7 +8046,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7968,7 +8087,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,7 +8103,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8056,7 +8175,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,7 +8183,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8072,7 +8191,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8080,7 +8199,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8099,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,7 +8240,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8132,7 +8251,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8140,10 +8259,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8151,10 +8270,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,7 +8284,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8176,7 +8295,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8187,7 +8306,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8198,7 +8317,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,10 +8325,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8217,10 +8336,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8231,7 +8350,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8242,7 +8361,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8250,7 +8369,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,7 +8377,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8266,7 +8385,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,7 +8393,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,7 +8401,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8290,7 +8409,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,7 +8417,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8306,7 +8425,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,7 +8433,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8322,23 +8441,23 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,7 +8465,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8354,7 +8473,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,7 +8481,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,7 +8489,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,7 +8497,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8386,7 +8505,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,7 +8513,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,7 +8521,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8410,7 +8529,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,31 +8537,31 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8450,7 +8569,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8458,7 +8577,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,7 +8585,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,7 +8593,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8482,7 +8601,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,7 +8609,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +8617,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8506,7 +8625,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8514,7 +8633,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8641,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,7 +8649,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8538,7 +8657,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8546,7 +8665,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,7 +8673,55 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="295">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t xml:space="preserve">a single powerful blow to defeat the enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.8</t>
   </si>
   <si>
     <t xml:space="preserve">Earth Power</t>
@@ -2571,8 +2574,8 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2685,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3449,7 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4321,7 +4324,7 @@
   </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4421,7 +4424,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,7 +4432,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,7 +4869,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +4891,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +5211,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5219,7 @@
         <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,7 +5297,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -5320,7 +5323,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -5332,7 +5335,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -5344,7 +5347,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -5364,7 +5367,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,7 +5596,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,7 +5604,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +5612,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5617,7 +5620,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,7 +5716,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,7 +5738,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,7 +5749,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,7 +5760,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +5771,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,7 +5779,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +5795,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,7 +5819,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5827,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5835,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5843,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,7 +5971,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +5995,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +6003,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,7 +6011,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6019,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,7 +6059,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6099,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,7 +6110,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,7 +6121,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,7 +6137,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -6148,7 +6151,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -6160,7 +6163,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -6172,7 +6175,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -6184,7 +6187,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -6204,7 +6207,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,7 +6436,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,7 +6444,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,7 +6452,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,7 +6460,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,7 +6556,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,7 +6578,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6586,7 +6589,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,7 +6600,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,7 +6611,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,7 +6619,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,7 +6627,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6635,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,7 +6659,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,7 +6667,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,7 +6675,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6680,7 +6683,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6808,7 +6811,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,7 +6835,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,7 +6843,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,7 +6851,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6856,7 +6859,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6896,7 +6899,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6939,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6947,7 +6950,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,7 +6961,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6974,7 +6977,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -6986,7 +6989,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -6998,7 +7001,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -7010,7 +7013,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -7030,7 +7033,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,7 +7133,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,7 +7262,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,7 +7270,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7275,7 +7278,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,7 +7286,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,7 +7382,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,7 +7404,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,7 +7415,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,7 +7426,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,7 +7437,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,7 +7448,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,7 +7459,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,7 +7470,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,7 +7481,7 @@
         <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7486,7 +7489,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7494,7 +7497,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7502,7 +7505,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,7 +7529,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7534,7 +7537,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7542,7 +7545,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7550,7 +7553,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7558,7 +7561,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7689,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,7 +7713,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7718,7 +7721,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,7 +7729,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7734,7 +7737,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,7 +7777,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7782,7 +7785,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,7 +7793,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,7 +7801,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7824,8 +7827,8 @@
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7841,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7860,7 +7863,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7876,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>134</v>
@@ -7902,7 +7905,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -7914,7 +7917,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -7926,7 +7929,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -7946,7 +7949,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,7 +8041,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8046,7 +8049,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,7 +8178,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8186,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,7 +8194,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,7 +8202,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,7 +8243,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,7 +8254,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8262,7 +8265,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,7 +8276,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8284,7 +8287,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8306,7 +8309,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8317,7 +8320,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8328,7 +8331,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8339,7 +8342,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8350,7 +8353,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,7 +8364,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,7 +8372,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8377,7 +8380,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8385,7 +8388,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8393,7 +8396,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,7 +8412,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,7 +8420,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,7 +8428,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,7 +8436,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8441,7 +8444,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8449,7 +8452,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,7 +8460,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8473,7 +8476,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8505,7 +8508,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,7 +8516,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8521,7 +8524,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,7 +8532,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,7 +8540,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,7 +8572,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,7 +8580,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8593,7 +8596,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8601,7 +8604,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8617,7 +8620,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,7 +8636,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8649,7 +8652,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8657,7 +8660,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,7 +8668,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,7 +8692,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8705,7 +8708,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,7 +8716,7 @@
         <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8721,7 +8724,7 @@
         <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -441,7 +441,7 @@
     <t xml:space="preserve">Dr. Fuji. It has a strong intuition and can</t>
   </si>
   <si>
-    <t xml:space="preserve">anticipate its enemy’s attacks. It will plan</t>
+    <t xml:space="preserve">anticipate its enemy's attacks. It will plan</t>
   </si>
   <si>
     <t xml:space="preserve">its strategy far ahead before moving.</t>
@@ -2574,8 +2574,8 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4324,8 +4324,8 @@
   </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="295">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -2572,10 +2572,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3295,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,7 +3303,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,7 +3311,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3319,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,7 +3327,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,7 +3335,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3343,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,7 +3351,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,7 +3359,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,7 +3367,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,7 +3375,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,7 +3383,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,7 +3391,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,7 +3399,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3407,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,14 +3415,6 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3447,10 +3439,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4159,10 +4151,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4162,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,7 +4170,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,7 +4178,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4186,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4194,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4202,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4210,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4218,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4226,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4234,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4242,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4250,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,7 +4258,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,7 +4266,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4274,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,14 +4282,6 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4322,10 +4306,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5064,10 +5048,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,7 +5059,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,7 +5067,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,7 +5075,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,7 +5083,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,7 +5091,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5099,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,7 +5107,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5115,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5123,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,7 +5131,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,7 +5139,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,7 +5147,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,7 +5155,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +5163,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,7 +5171,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,7 +5179,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,7 +5187,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,14 +5195,6 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="2" t="s">
         <v>197</v>
       </c>
     </row>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <sheet name="Clone_Charmeleon" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Clone_Charizard" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Clone_Squirtle" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Clone_Wartortle" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Clone_Blastoise" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="310">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -783,7 +785,7 @@
     <t xml:space="preserve">Squirtle</t>
   </si>
   <si>
-    <t xml:space="preserve">WARTORTLE</t>
+    <t xml:space="preserve">CLONE_WARTORTLE</t>
   </si>
   <si>
     <t xml:space="preserve">Dr. Fuji. It has a steady nature and will</t>
@@ -913,6 +915,51 @@
   </si>
   <si>
     <t xml:space="preserve">Dive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wartortle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE_BLASTOISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has nerves of steel. This POKéMON can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn the tide of the battle with defensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strategies. By using its hard shell, it can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slowly wear out the enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blastoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its defenses are impervious and nerves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unswerving. It can use its water jets for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crushing streams or high-speed tackles. It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is ambitious to fight the strongest of foes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_STEEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal Burst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam Eruption</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1829,6 +1876,1893 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G106"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1836,8 +3770,8 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2574,7 +4508,7 @@
   </sheetPr>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -3441,8 +5375,8 @@
   </sheetPr>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3679,7 +5613,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,8 +6242,8 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4532,7 +6466,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,7 +7996,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6299,7 +8233,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,7 +8836,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7125,7 +9059,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7804,7 +9738,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,20 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Clone_Bulbasaur" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Clone_Ivysaur" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Clone_Venusaur" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Clone_Charmander" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Clone_Charmeleon" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Clone_Charizard" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Clone_Squirtle" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Clone_Wartortle" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Clone_Blastoise" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Golppy" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Clone_Bulbasaur" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Clone_Ivysaur" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Clone_Venusaur" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Clone_Charmander" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Clone_Charmeleon" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Clone_Charizard" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Clone_Squirtle" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Clone_Wartortle" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Clone_Blastoise" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="335">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -416,6 +417,138 @@
     <t xml:space="preserve">Thief</t>
   </si>
   <si>
+    <t xml:space="preserve">GOLPPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golppy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINY FISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLDEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has an easygoing nature. Golppy travel in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large schools, which protects them from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predators. It plays underwater by blowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bubbles from its mouth and chasing them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_WATER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_SWIFT_SWIM,ABILITY_NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_WATER_VEIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY_COLOR_WHITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supersonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camouflage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubblebeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqua Tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Slap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psybeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Boom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icy Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dive</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_BULBASAUR</t>
   </si>
   <si>
@@ -512,9 +645,6 @@
     <t xml:space="preserve">Solar Beam</t>
   </si>
   <si>
-    <t xml:space="preserve">Nature Power</t>
-  </si>
-  <si>
     <t xml:space="preserve">Petal Dance</t>
   </si>
   <si>
@@ -542,27 +672,12 @@
     <t xml:space="preserve">Fury Cutter</t>
   </si>
   <si>
-    <t xml:space="preserve">Mud Slap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swords Dance</t>
   </si>
   <si>
     <t xml:space="preserve">Bullet Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidden Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frustration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cut</t>
   </si>
   <si>
@@ -800,9 +915,6 @@
     <t xml:space="preserve">10.3</t>
   </si>
   <si>
-    <t xml:space="preserve">TYPE_WATER</t>
-  </si>
-  <si>
     <t xml:space="preserve">EGG_GROUP_WATER_1</t>
   </si>
   <si>
@@ -833,21 +945,12 @@
     <t xml:space="preserve">Bubble Beam</t>
   </si>
   <si>
-    <t xml:space="preserve">Rain Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqua Tail</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shell Smash</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Defense</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydro Pump</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iron Head</t>
   </si>
   <si>
@@ -866,9 +969,6 @@
     <t xml:space="preserve">Mirror Coat</t>
   </si>
   <si>
-    <t xml:space="preserve">Haze</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mist</t>
   </si>
   <si>
@@ -887,34 +987,10 @@
     <t xml:space="preserve">Ice Punch</t>
   </si>
   <si>
-    <t xml:space="preserve">Icy Wind</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rollout</t>
   </si>
   <si>
     <t xml:space="preserve">Seismic Toss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Pulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blizzard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dive</t>
   </si>
   <si>
     <t xml:space="preserve">Wartortle</t>
@@ -1884,7 +1960,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1900,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,13 +2011,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,11 +2025,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,11 +2037,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,11 +2049,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,11 +2061,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,7 +2073,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,11 +2121,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,7 +2141,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2149,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +2157,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2165,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,7 +2173,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +2181,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2197,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,7 +2222,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,7 +2302,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,7 +2318,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2326,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,7 +2334,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,10 +2372,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,10 +2383,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,7 +2419,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2427,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>97</v>
@@ -2362,10 +2438,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,10 +2449,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,10 +2460,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2471,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,10 +2482,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,10 +2493,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +2504,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2512,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +2520,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2528,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,7 +2544,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +2552,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2560,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,7 +2568,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,7 +2576,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2584,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,7 +2592,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2608,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2616,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2632,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2640,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2648,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>285</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,7 +2656,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2664,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,7 +2672,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>288</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,7 +2712,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2720,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2736,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2752,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +2760,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2768,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,7 +2784,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +2792,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +2800,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +2808,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,7 +2824,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,7 +2832,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,7 +2840,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,7 +2848,7 @@
         <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +2856,7 @@
         <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2804,6 +2880,929 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2823,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +3838,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +3849,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +3857,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -2870,7 +3869,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -2882,7 +3881,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -2894,7 +3893,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -2914,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,7 +4005,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +4013,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,7 +4102,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,7 +4134,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +4142,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,7 +4150,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,7 +4158,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +4166,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +4229,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +4284,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,7 +4295,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +4306,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +4317,7 @@
         <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +4328,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,7 +4361,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +4372,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,7 +4383,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3392,7 +4391,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,7 +4399,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +4407,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +4415,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,7 +4431,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +4439,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,7 +4447,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +4455,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +4463,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +4471,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,7 +4479,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,7 +4495,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,7 +4503,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,7 +4519,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +4527,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,7 +4535,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>285</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +4543,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +4551,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +4559,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,7 +4591,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>288</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +4599,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +4607,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +4615,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,7 +4623,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +4639,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3648,7 +4647,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,7 +4655,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,7 +4671,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,7 +4679,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +4687,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +4695,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,7 +4711,7 @@
         <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,7 +4719,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,7 +4727,7 @@
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,7 +4735,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +4743,7 @@
         <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +4769,7 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -4506,10 +5505,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4541,10 +5540,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,13 +5559,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,11 +5573,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,11 +5585,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,11 +5597,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,11 +5609,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +5621,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +5629,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,11 +5669,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +5681,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,7 +5689,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +5697,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,7 +5705,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,7 +5713,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,7 +5721,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,7 +5729,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,7 +5755,6 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -4765,6 +5763,7 @@
       <c r="B27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -4779,7 +5778,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +5786,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,7 +5818,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,7 +5850,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,7 +5858,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,7 +5866,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +5874,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +5882,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,10 +5920,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,10 +5931,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,10 +5942,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,10 +5953,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,10 +5964,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,10 +5975,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,7 +5989,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,7 +6000,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,7 +6011,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,32 +6019,26 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +6046,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,7 +6054,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,7 +6062,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +6070,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +6078,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,7 +6094,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,23 +6102,23 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,7 +6126,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +6134,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,7 +6142,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,63 +6150,63 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +6214,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +6222,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +6230,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,7 +6238,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +6246,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +6254,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,7 +6262,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +6270,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,71 +6278,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +6305,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5392,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,10 +6337,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,13 +6356,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,11 +6370,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,11 +6382,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,11 +6394,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,11 +6406,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,7 +6418,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,7 +6426,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,11 +6466,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,7 +6478,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +6486,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,7 +6494,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +6502,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,7 +6510,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,7 +6518,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,7 +6526,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,7 +6542,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,7 +6583,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,7 +6615,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,7 +6647,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +6655,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,7 +6663,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +6671,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,7 +6679,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,10 +6717,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,10 +6728,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,10 +6739,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,10 +6750,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,10 +6761,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,10 +6772,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,10 +6783,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5865,10 +6794,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,10 +6805,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,7 +6816,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -5898,10 +6827,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,10 +6838,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +6849,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +6865,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,7 +6881,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +6889,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +6905,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +6913,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +6921,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,7 +6937,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6945,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,7 +6953,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +7009,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,7 +7025,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,7 +7033,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +7057,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +7065,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,7 +7073,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,7 +7097,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,7 +7105,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,7 +7113,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,7 +7129,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,7 +7137,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,7 +7145,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6240,10 +7169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6259,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6267,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6275,10 +7204,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6286,209 +7215,215 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>41</v>
+        <v>219</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>230</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -6496,7 +7431,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -6504,31 +7439,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -6536,93 +7471,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6633,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6666,7 +7598,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,7 +7620,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,7 +7631,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,7 +7642,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,7 +7653,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6732,7 +7664,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,7 +7675,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,7 +7683,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -6762,10 +7694,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,43 +7705,34 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,7 +7740,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6825,7 +7748,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,7 +7756,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,7 +7764,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6849,7 +7772,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6857,7 +7780,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,31 +7788,31 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6897,7 +7820,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,7 +7828,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,7 +7836,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,7 +7844,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +7852,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,7 +7860,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6945,7 +7868,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,31 +7876,31 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,7 +7908,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,7 +7916,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,7 +7924,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,7 +7932,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,7 +7940,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,7 +7948,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,7 +7956,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,7 +7964,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,7 +7972,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,7 +7980,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,7 +7988,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,7 +7996,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,7 +8004,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,51 +8012,11 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -7153,10 +8036,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7172,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,10 +8071,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,53 +8082,51 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>227</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -7254,151 +8135,148 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>204</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
@@ -7406,16 +8284,15 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -7423,15 +8300,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -7439,15 +8316,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -7455,90 +8332,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>208</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,10 +8459,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,10 +8470,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,10 +8481,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,10 +8492,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,10 +8503,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,10 +8514,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,10 +8525,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7656,10 +8536,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,10 +8547,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,42 +8558,54 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +8613,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +8621,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,7 +8629,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7745,7 +8637,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7753,47 +8645,47 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,7 +8693,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,7 +8701,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,7 +8709,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,63 +8717,63 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,7 +8781,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7897,7 +8789,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,7 +8797,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,7 +8805,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,7 +8821,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,7 +8829,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7945,7 +8837,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7953,7 +8845,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,7 +8853,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7969,11 +8861,75 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -7996,7 +8952,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8012,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8020,7 +8976,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8028,10 +8984,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8039,7 +8995,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,13 +9003,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,11 +9017,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8073,11 +9029,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,11 +9041,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8097,11 +9053,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,7 +9065,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,7 +9073,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,11 +9113,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,7 +9125,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,7 +9133,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8185,7 +9141,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,7 +9149,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8201,7 +9157,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8233,7 +9189,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,7 +9205,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -8306,7 +9262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8338,7 +9294,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,7 +9302,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8354,7 +9310,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,7 +9318,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,7 +9326,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,7 +9408,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>118</v>
@@ -8463,10 +9419,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,7 +9430,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>119</v>
@@ -8485,10 +9441,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8496,10 +9452,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,10 +9463,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,10 +9474,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,7 +9485,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8537,7 +9493,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8545,7 +9501,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,7 +9525,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,7 +9533,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8585,7 +9541,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8593,7 +9549,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8721,7 +9677,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,7 +9685,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8737,7 +9693,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8745,7 +9701,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,7 +9709,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8761,7 +9717,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,7 +9725,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,7 +9733,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8785,7 +9741,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8793,7 +9749,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8801,7 +9757,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,7 +9765,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -8833,10 +9789,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8852,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8860,7 +9816,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,10 +9824,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8879,217 +9835,223 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>267</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>240</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -9097,7 +10059,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -9105,7 +10067,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -9113,15 +10075,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -9129,93 +10091,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9226,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9245,10 +10204,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9256,10 +10215,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9267,10 +10226,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9278,10 +10237,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,10 +10248,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9300,10 +10259,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9311,10 +10270,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9322,10 +10281,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9333,10 +10292,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,7 +10306,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,40 +10317,31 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,7 +10349,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9407,7 +10357,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,7 +10365,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,7 +10373,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9431,7 +10381,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,39 +10389,39 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>246</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9479,7 +10429,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9487,7 +10437,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9495,7 +10445,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9503,7 +10453,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9511,39 +10461,39 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9551,7 +10501,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9559,7 +10509,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,7 +10517,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9575,7 +10525,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9583,7 +10533,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9591,7 +10541,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9599,7 +10549,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,7 +10557,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9615,7 +10565,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,7 +10573,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9631,7 +10581,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9639,7 +10589,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,7 +10597,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9655,67 +10605,11 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -9735,10 +10629,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9754,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,7 +10656,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9770,10 +10664,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,142 +10675,136 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>274</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>70</v>
@@ -9924,72 +10812,72 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>256</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -9997,15 +10885,15 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -10013,7 +10901,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -10021,15 +10909,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -10037,90 +10925,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>260</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10131,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10142,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,10 +11041,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,10 +11052,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,10 +11063,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10183,10 +11074,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10194,10 +11085,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,10 +11096,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,10 +11107,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,10 +11118,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10238,10 +11129,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10249,10 +11140,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,10 +11151,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10271,26 +11162,32 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10298,7 +11195,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10306,7 +11203,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10314,7 +11211,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10322,7 +11219,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10330,7 +11227,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10338,7 +11235,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10346,7 +11243,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,7 +11251,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10362,7 +11259,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10370,7 +11267,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,7 +11283,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10394,7 +11291,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10402,7 +11299,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10410,7 +11307,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10418,7 +11315,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>284</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10426,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>285</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10434,7 +11331,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10442,39 +11339,39 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10482,7 +11379,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,7 +11387,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10498,7 +11395,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10506,7 +11403,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10514,7 +11411,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,7 +11419,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10530,7 +11427,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10538,7 +11435,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10546,7 +11443,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +11451,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10562,7 +11459,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10570,7 +11467,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10578,7 +11475,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10586,7 +11483,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10594,7 +11491,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10602,7 +11499,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10610,35 +11507,11 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="334">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">Camouflage</t>
   </si>
   <si>
-    <t xml:space="preserve">Bubblebeam</t>
+    <t xml:space="preserve">Bubble Beam</t>
   </si>
   <si>
     <t xml:space="preserve">Rain Dance</t>
@@ -940,9 +940,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gyro Ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubble Beam</t>
   </si>
   <si>
     <t xml:space="preserve">Shell Smash</t>
@@ -2419,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,7 +2460,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2471,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,7 +2493,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,7 +2501,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,7 +2509,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2517,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,7 +2525,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,7 +2541,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2557,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,7 +2573,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2581,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2589,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,7 +2605,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2661,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2669,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2931,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>178</v>
@@ -2948,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -2960,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -2972,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -2984,7 +2981,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -3004,7 +3001,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,7 +3383,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,7 +3416,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +3424,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,7 +3432,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,7 +3440,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +3448,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3464,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3480,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,7 +3496,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,7 +3504,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3512,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,7 +3528,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3560,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,7 +3584,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,7 +3592,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -3869,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -3881,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -3893,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -4013,7 +4010,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,7 +4248,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>303</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,7 +4292,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,7 +4303,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +4325,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +4336,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,7 +4347,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,7 +4358,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,7 +4380,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,7 +4396,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4404,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,7 +4412,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,7 +4428,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,7 +4444,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4460,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4471,7 +4468,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,7 +4476,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,7 +4492,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4548,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +4556,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,8 +5504,8 @@
   </sheetPr>
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,21 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Golppy" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Clone_Bulbasaur" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Clone_Ivysaur" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Clone_Venusaur" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Clone_Charmander" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Clone_Charmeleon" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Clone_Charizard" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Clone_Squirtle" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Clone_Wartortle" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Clone_Blastoise" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Chicks" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Clone_Bulbasaur" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Clone_Ivysaur" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Clone_Venusaur" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Clone_Charmander" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Clone_Charmeleon" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Clone_Charizard" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Clone_Squirtle" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Clone_Wartortle" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Clone_Blastoise" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="365">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -549,6 +550,108 @@
     <t xml:space="preserve">Dive</t>
   </si>
   <si>
+    <t xml:space="preserve">CHICKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doduo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINY BIRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODUO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is wary of dangers and will camouflage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itself when in danger. It will loudly demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food from its caretaker, making earplugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a useful asset for trainers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_FLYING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featherdance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disarming Voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uproar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drill Peck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper Voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brave Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endeavor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feint Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror Move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Gift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boomburst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mud-Slap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerial Ace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel Wing</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_BULBASAUR</t>
   </si>
   <si>
@@ -666,9 +769,6 @@
     <t xml:space="preserve">Defense Curl</t>
   </si>
   <si>
-    <t xml:space="preserve">Endure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fury Cutter</t>
   </si>
   <si>
@@ -795,9 +895,6 @@
     <t xml:space="preserve">Night Slash</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerial Ace</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shadow Claw</t>
   </si>
   <si>
@@ -823,9 +920,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brick Break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facade</t>
   </si>
   <si>
     <t xml:space="preserve">Rock Smash</t>
@@ -1954,10 +2048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1973,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2083,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,142 +2094,136 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>305</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>293</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>70</v>
@@ -2143,72 +2231,72 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -2216,15 +2304,15 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -2232,7 +2320,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -2240,15 +2328,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -2256,90 +2344,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>297</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,10 +2460,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,10 +2471,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,10 +2482,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,10 +2493,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,10 +2504,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,10 +2515,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,10 +2526,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,10 +2537,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,10 +2548,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,10 +2559,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,10 +2570,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,26 +2581,32 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,7 +2614,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +2622,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +2630,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,7 +2638,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2646,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,7 +2654,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,7 +2670,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +2678,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,7 +2686,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2702,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>315</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2710,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2718,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,7 +2726,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2734,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +2742,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,7 +2750,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,39 +2758,39 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>317</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,7 +2798,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2806,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2814,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2822,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,7 +2830,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,7 +2838,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,7 +2846,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2854,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,7 +2862,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,7 +2870,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,7 +2878,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>263</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2886,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,7 +2894,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,7 +2902,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2910,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,7 +2918,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,35 +2926,11 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -2880,7 +2953,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2896,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,10 +2985,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,7 +2996,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,10 +3007,10 @@
         <v>320</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,11 +3018,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,11 +3030,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,11 +3042,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,11 +3054,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,11 +3114,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3126,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,7 +3134,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3142,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3150,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3158,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,7 +3190,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +3215,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +3263,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3295,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3303,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,7 +3311,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3319,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,7 +3327,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +3365,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3376,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,7 +3420,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>97</v>
@@ -3358,7 +3431,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>148</v>
@@ -3369,7 +3442,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>151</v>
@@ -3380,10 +3453,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,10 +3464,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,7 +3475,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>153</v>
@@ -3413,10 +3486,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,7 +3497,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,7 +3505,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3513,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,7 +3521,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +3537,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,7 +3553,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +3561,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,7 +3569,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,7 +3577,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,7 +3585,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,7 +3601,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,7 +3609,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3625,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +3633,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3649,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,7 +3657,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,7 +3665,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +3761,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +3777,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,7 +3785,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3720,7 +3793,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,7 +3825,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,7 +3833,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,6 +3873,929 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3819,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,10 +4831,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +4842,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -3866,7 +4862,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -3878,7 +4874,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -3890,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -3910,7 +4906,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,7 +5006,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +5095,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +5127,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,7 +5135,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +5143,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,7 +5151,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,7 +5159,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +5222,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,7 +5233,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,7 +5288,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,7 +5299,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,7 +5321,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,7 +5332,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,7 +5343,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,7 +5354,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +5365,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,7 +5376,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +5384,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,7 +5392,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,7 +5400,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +5424,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +5440,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +5448,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +5456,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,7 +5464,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +5472,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +5488,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +5496,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,7 +5512,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,7 +5520,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +5536,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +5544,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,7 +5552,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,7 +5648,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,7 +5664,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +5672,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,7 +5680,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +5712,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +5720,7 @@
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +6500,7 @@
   </sheetPr>
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -6299,10 +7295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6334,10 +7330,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,7 +7341,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6353,13 +7349,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,11 +7363,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,11 +7375,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,11 +7387,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,11 +7399,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,7 +7411,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6423,7 +7419,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6463,11 +7459,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,7 +7471,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6483,7 +7479,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,7 +7487,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,7 +7495,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +7503,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,7 +7511,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,7 +7519,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,7 +7545,6 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -6558,6 +7553,7 @@
       <c r="B27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -6572,7 +7568,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,7 +7608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,7 +7640,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6652,7 +7648,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,7 +7656,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,7 +7664,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,7 +7672,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6714,10 +7710,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,10 +7721,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,10 +7732,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,10 +7743,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,10 +7754,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,10 +7765,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6780,10 +7776,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,10 +7787,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6802,10 +7798,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,10 +7809,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,21 +7820,18 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6846,7 +7839,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,7 +7847,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6862,7 +7855,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,7 +7863,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,7 +7871,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6886,7 +7879,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,7 +7887,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6902,7 +7895,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6910,7 +7903,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,7 +7911,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6934,7 +7927,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6942,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,7 +7943,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,7 +7951,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,7 +7959,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6974,7 +7967,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,7 +7975,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,23 +7983,23 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7014,7 +8007,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,7 +8015,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7030,7 +8023,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,7 +8031,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,7 +8039,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,7 +8047,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7062,7 +8055,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,7 +8063,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7078,7 +8071,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7086,7 +8079,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7094,7 +8087,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,47 +8095,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7169,7 +8122,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7185,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7201,10 +8154,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7212,7 +8165,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,13 +8173,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7234,11 +8187,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,11 +8199,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,11 +8211,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,11 +8223,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,7 +8235,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7330,11 +8283,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,7 +8295,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7350,7 +8303,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,7 +8311,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,7 +8319,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7374,7 +8327,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,7 +8335,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,7 +8343,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,7 +8359,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,7 +8400,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,7 +8432,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,7 +8464,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,7 +8472,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +8480,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +8488,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +8496,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,10 +8534,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,10 +8545,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,10 +8556,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7614,10 +8567,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7625,10 +8578,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,10 +8589,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,10 +8600,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7658,10 +8611,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,10 +8622,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7680,7 +8633,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -7691,10 +8644,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7702,10 +8655,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,7 +8666,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +8682,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7745,7 +8698,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7753,7 +8706,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7761,7 +8714,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,7 +8722,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7777,7 +8730,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,7 +8738,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,7 +8754,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,7 +8762,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,7 +8770,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7873,7 +8826,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,7 +8842,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,7 +8874,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,7 +8890,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,7 +8914,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,7 +8946,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8001,7 +8954,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8009,7 +8962,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8033,10 +8986,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8052,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8060,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8068,10 +9021,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8079,209 +9032,215 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>41</v>
+        <v>252</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>230</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -8289,7 +9248,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -8297,31 +9256,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -8329,93 +9288,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8426,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8437,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8448,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8459,7 +9415,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8470,7 +9426,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,7 +9437,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8492,7 +9448,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8503,7 +9459,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8514,7 +9470,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8525,7 +9481,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,7 +9492,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,7 +9500,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -8555,10 +9511,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8566,43 +9522,34 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,7 +9557,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8618,7 +9565,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8626,7 +9573,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,7 +9581,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,7 +9589,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,7 +9597,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8658,31 +9605,31 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,7 +9637,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,7 +9645,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,7 +9653,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8714,7 +9661,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8722,7 +9669,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,7 +9677,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,7 +9685,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,31 +9693,31 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8778,7 +9725,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,7 +9733,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8794,7 +9741,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,7 +9749,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8810,7 +9757,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,7 +9765,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +9773,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8834,7 +9781,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,7 +9789,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,7 +9797,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8858,7 +9805,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8866,7 +9813,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,7 +9821,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8882,51 +9829,11 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -8946,10 +9853,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8965,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8973,7 +9880,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,10 +9888,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8992,53 +9899,51 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>260</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -9047,151 +9952,148 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
@@ -9199,16 +10101,15 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -9216,15 +10117,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -9232,15 +10133,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -9248,90 +10149,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>246</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9342,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9353,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9372,10 +10276,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9383,10 +10287,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9394,10 +10298,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,10 +10309,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9416,10 +10320,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9427,10 +10331,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9438,10 +10342,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,10 +10353,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9460,10 +10364,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,42 +10375,54 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9514,7 +10430,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9522,7 +10438,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9530,7 +10446,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,7 +10454,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9546,47 +10462,47 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9594,7 +10510,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,7 +10518,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,7 +10526,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9618,63 +10534,63 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9682,7 +10598,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9690,7 +10606,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9698,7 +10614,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9706,7 +10622,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9714,7 +10630,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9722,7 +10638,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9730,7 +10646,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9738,7 +10654,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,7 +10662,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9754,7 +10670,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,11 +10678,75 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -9789,7 +10769,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9805,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9813,7 +10793,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,10 +10801,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9832,7 +10812,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9840,13 +10820,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9854,11 +10834,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9866,11 +10846,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,11 +10858,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9890,11 +10870,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9902,7 +10882,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,7 +10890,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9950,11 +10930,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9962,7 +10942,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9970,7 +10950,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9978,7 +10958,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9986,7 +10966,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9994,7 +10974,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10026,7 +11006,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10042,7 +11022,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -10099,7 +11079,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10131,7 +11111,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,7 +11119,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10147,7 +11127,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10155,7 +11135,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10163,7 +11143,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10182,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10245,7 +11225,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>118</v>
@@ -10256,10 +11236,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10267,7 +11247,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>119</v>
@@ -10278,10 +11258,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,10 +11269,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,10 +11280,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10311,10 +11291,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10322,7 +11302,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10330,7 +11310,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10338,7 +11318,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10362,7 +11342,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10370,7 +11350,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10378,7 +11358,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,7 +11366,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10514,7 +11494,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10538,7 +11518,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10546,7 +11526,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +11534,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10562,7 +11542,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10586,7 +11566,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10594,7 +11574,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10602,7 +11582,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -10626,10 +11606,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10645,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,10 +11641,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,217 +11652,223 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>298</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -10890,7 +11876,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -10898,7 +11884,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -10906,15 +11892,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -10922,93 +11908,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11019,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11030,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11038,10 +12021,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,10 +12032,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11060,10 +12043,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11071,10 +12054,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11082,10 +12065,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11093,10 +12076,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11104,10 +12087,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11115,10 +12098,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11126,10 +12109,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11140,7 +12123,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11151,40 +12134,31 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11192,7 +12166,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11200,7 +12174,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11208,7 +12182,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,7 +12190,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11224,7 +12198,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11232,39 +12206,39 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11272,7 +12246,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,7 +12254,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,7 +12262,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11296,7 +12270,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,39 +12278,39 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11344,7 +12318,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,7 +12326,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,7 +12334,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11368,7 +12342,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11376,7 +12350,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11384,7 +12358,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,7 +12366,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11400,7 +12374,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11408,7 +12382,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11416,7 +12390,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,7 +12398,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,7 +12406,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11440,7 +12414,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11448,67 +12422,11 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Puddi" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Golppy" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Chicks" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Clone_Bulbasaur" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Clone_Ivysaur" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Clone_Venusaur" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Clone_Charmander" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Clone_Charmeleon" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Clone_Charizard" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Clone_Squirtle" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Clone_Wartortle" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Clone_Blastoise" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Meowsy" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Clone_Bulbasaur" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Clone_Ivysaur" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Clone_Venusaur" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Clone_Charmander" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Clone_Charmeleon" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Clone_Charizard" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Clone_Squirtle" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Clone_Wartortle" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Clone_Blastoise" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="394">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -451,6 +452,9 @@
     <t xml:space="preserve">TYPE_WATER</t>
   </si>
   <si>
+    <t xml:space="preserve">PERCENT_FEMALE(50)</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ABILITY_SWIFT_SWIM,ABILITY_NONE}</t>
   </si>
   <si>
@@ -556,15 +560,12 @@
     <t xml:space="preserve">Chicks</t>
   </si>
   <si>
-    <t xml:space="preserve">Doduo</t>
+    <t xml:space="preserve">DODUO</t>
   </si>
   <si>
     <t xml:space="preserve">TINY BIRD</t>
   </si>
   <si>
-    <t xml:space="preserve">DODUO</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is wary of dangers and will camouflage</t>
   </si>
   <si>
@@ -586,6 +587,12 @@
     <t xml:space="preserve">TYPE_FLYING</t>
   </si>
   <si>
+    <t xml:space="preserve">{ABILITY_RUN_AWAY,ABILITY_EARLY_BIRD}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_TANGLED_FEET</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quick Attack</t>
   </si>
   <si>
@@ -652,6 +659,111 @@
     <t xml:space="preserve">Steel Wing</t>
   </si>
   <si>
+    <t xml:space="preserve">MEOWSY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meowsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEOWTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KITTEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It likes playing with shiny things. It will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claim unattended trinkets as its own. MEOWSY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likes polishing its trainer’s BADGES and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brags about them to others of its kind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_NUGGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_PICKUP,ABILITY_TECHNICIAN}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_BONANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake Tears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury Swipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasty Plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amnesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foul Play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odor Sleuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Curl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dream Eater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_BULBASAUR</t>
   </si>
   <si>
@@ -760,15 +872,9 @@
     <t xml:space="preserve">Spore</t>
   </si>
   <si>
-    <t xml:space="preserve">Amnesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sludge Wave</t>
   </si>
   <si>
-    <t xml:space="preserve">Defense Curl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fury Cutter</t>
   </si>
   <si>
@@ -778,15 +884,9 @@
     <t xml:space="preserve">Bullet Seed</t>
   </si>
   <si>
-    <t xml:space="preserve">Cut</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strength</t>
   </si>
   <si>
-    <t xml:space="preserve">Flash</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ivysaur</t>
   </si>
   <si>
@@ -874,9 +974,6 @@
     <t xml:space="preserve">BODY_COLOR_RED</t>
   </si>
   <si>
-    <t xml:space="preserve">Fury Swipes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crush Claw</t>
   </si>
   <si>
@@ -892,9 +989,6 @@
     <t xml:space="preserve">Flare Blitz</t>
   </si>
   <si>
-    <t xml:space="preserve">Night Slash</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shadow Claw</t>
   </si>
   <si>
@@ -916,9 +1010,6 @@
     <t xml:space="preserve">Iron Tail</t>
   </si>
   <si>
-    <t xml:space="preserve">Dig</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brick Break</t>
   </si>
   <si>
@@ -1052,9 +1143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Flash Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fake Out</t>
   </si>
   <si>
     <t xml:space="preserve">Mirror Coat</t>
@@ -2048,10 +2136,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2067,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,10 +2171,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,217 +2182,223 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>328</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>309</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -2312,7 +2406,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -2320,7 +2414,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -2328,15 +2422,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -2344,93 +2438,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,10 +2551,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2562,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,10 +2573,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2584,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,10 +2595,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,10 +2606,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,10 +2617,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>311</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2628,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2639,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2653,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,40 +2664,31 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,7 +2696,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2704,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,7 +2712,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2720,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2728,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,39 +2736,39 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>289</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>291</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>315</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2776,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2784,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2792,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2800,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,39 +2808,39 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2848,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2856,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2864,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2872,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2880,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,7 +2888,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2896,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,7 +2904,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2912,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2920,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2928,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +2936,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +2944,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,67 +2952,11 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -2950,10 +2976,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2969,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,10 +3011,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,142 +3022,136 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>335</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>324</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>70</v>
@@ -3139,72 +3159,72 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -3212,15 +3232,15 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -3228,7 +3248,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -3236,15 +3256,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -3252,90 +3272,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>328</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,10 +3388,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>330</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,10 +3399,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>331</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,10 +3410,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>332</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,10 +3421,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,10 +3432,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,10 +3443,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,10 +3454,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,10 +3465,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3476,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,10 +3487,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,10 +3498,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,26 +3509,32 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,7 +3542,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3550,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>340</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,7 +3558,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,7 +3566,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>341</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,7 +3582,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,7 +3590,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,7 +3598,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,7 +3606,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,7 +3630,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>346</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,7 +3638,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,7 +3646,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,7 +3654,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,7 +3662,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +3670,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,7 +3678,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,39 +3686,39 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>348</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>349</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,7 +3726,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,7 +3734,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,7 +3742,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>163</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,7 +3758,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,7 +3766,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,7 +3774,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3782,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3790,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3798,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,7 +3806,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3814,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,7 +3822,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,7 +3830,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>168</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +3838,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,7 +3846,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,35 +3854,11 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -3876,7 +3881,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3892,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,10 +3913,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,13 +3932,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,11 +3946,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,11 +3958,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,11 +3970,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,11 +3982,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,7 +3994,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4002,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,11 +4042,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,7 +4054,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,7 +4062,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,7 +4070,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,7 +4078,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,7 +4086,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,7 +4118,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,7 +4143,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,7 +4191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4223,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4231,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4239,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4247,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4255,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,10 +4293,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,10 +4304,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,7 +4329,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,7 +4340,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,7 +4348,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>97</v>
@@ -4354,10 +4359,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,10 +4370,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,10 +4381,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +4392,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,10 +4403,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,10 +4414,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,7 +4425,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4433,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4441,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4449,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +4465,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +4481,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,7 +4489,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4497,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4505,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,7 +4513,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,7 +4529,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4537,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4553,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,7 +4561,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,7 +4569,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,7 +4577,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,7 +4585,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,7 +4593,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,7 +4625,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4633,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +4641,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4649,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,7 +4657,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,7 +4673,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4681,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,7 +4689,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,7 +4705,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4708,7 +4713,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4721,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4729,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,7 +4745,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,7 +4753,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,7 +4761,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,7 +4769,7 @@
         <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,7 +4777,7 @@
         <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4796,6 +4801,929 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -4815,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,10 +5759,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,7 +5778,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -4862,7 +5790,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -4874,7 +5802,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -4886,7 +5814,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -4906,7 +5834,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,7 +5934,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +6023,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,7 +6055,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,7 +6063,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,7 +6071,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,7 +6079,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,7 +6087,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,7 +6150,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,7 +6161,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,7 +6172,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5266,7 +6194,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +6205,7 @@
         <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +6216,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +6227,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,7 +6249,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,7 +6260,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,7 +6271,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,7 +6282,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,7 +6293,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +6304,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +6312,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +6320,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +6328,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +6336,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +6352,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +6360,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +6368,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +6376,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,7 +6384,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +6392,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +6400,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +6416,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +6424,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +6440,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +6448,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +6456,7 @@
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +6464,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +6472,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +6480,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +6512,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,7 +6520,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +6528,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +6536,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,7 +6544,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +6560,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +6568,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +6576,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +6592,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +6600,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +6608,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +6616,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +6632,7 @@
         <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +6640,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +6648,7 @@
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +6656,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +6664,7 @@
         <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6500,8 +7428,8 @@
   </sheetPr>
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6754,7 +7682,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -6771,7 +7699,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,7 +7739,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,7 +7787,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,7 +7795,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,7 +7803,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +7866,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,7 +7877,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,7 +7888,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6982,7 +7910,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,7 +7921,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,7 +7943,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,7 +7951,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,7 +7959,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,7 +7967,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7047,7 +7975,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,7 +7983,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7063,7 +7991,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,7 +7999,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,7 +8007,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,7 +8015,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +8023,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,7 +8031,7 @@
         <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,7 +8079,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +8087,7 @@
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +8095,7 @@
         <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +8103,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,7 +8111,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,7 +8127,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,7 +8135,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,7 +8159,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,7 +8167,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +8183,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,7 +8191,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7271,7 +8199,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7297,8 +8225,8 @@
   </sheetPr>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7314,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7322,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,7 +8261,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,7 +8269,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,7 +8277,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -7551,7 +8479,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -7568,7 +8496,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,7 +8536,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7656,7 +8584,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,7 +8592,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7672,7 +8600,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7702,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7724,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,7 +8663,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,7 +8674,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,7 +8685,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,7 +8696,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,7 +8707,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,7 +8718,7 @@
         <v>20</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,7 +8729,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7812,7 +8740,7 @@
         <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,7 +8751,7 @@
         <v>30</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,7 +8759,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,7 +8767,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7847,7 +8775,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,7 +8791,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7871,7 +8799,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,7 +8807,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,7 +8815,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,7 +8823,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7903,7 +8831,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7911,7 +8839,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7935,7 +8863,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7951,7 +8879,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7991,7 +8919,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7999,7 +8927,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8023,7 +8951,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,7 +8975,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,7 +8983,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,7 +8991,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,7 +8999,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,7 +9023,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8119,16 +9047,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="40.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
   </cols>
@@ -8138,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8146,7 +9074,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,10 +9082,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,7 +9093,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,13 +9101,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8187,11 +9115,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,11 +9127,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,11 +9139,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8223,11 +9151,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,7 +9163,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,7 +9171,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8283,11 +9211,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8295,7 +9223,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8303,7 +9231,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8311,7 +9239,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,7 +9247,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8327,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,7 +9263,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8343,7 +9271,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,7 +9297,6 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -8378,6 +9305,7 @@
       <c r="B27" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -8392,7 +9320,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8400,7 +9328,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,7 +9352,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8432,7 +9360,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8464,7 +9392,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8472,7 +9400,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,7 +9408,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8488,7 +9416,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8496,7 +9424,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8515,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8526,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8534,10 +9462,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8545,10 +9473,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8556,10 +9484,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8567,10 +9495,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,10 +9506,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8589,10 +9517,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8600,10 +9528,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8611,10 +9539,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8625,7 +9553,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,32 +9561,26 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,7 +9588,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8674,7 +9596,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,7 +9604,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,7 +9612,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,7 +9620,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,7 +9628,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8714,7 +9636,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8722,7 +9644,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,15 +9652,15 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8746,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8754,7 +9676,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8762,7 +9684,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8770,7 +9692,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,7 +9708,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8794,7 +9716,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,7 +9724,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8810,7 +9732,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +9748,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8834,7 +9756,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,7 +9764,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,7 +9772,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8866,7 +9788,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,7 +9796,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8882,7 +9804,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,7 +9812,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,7 +9820,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,7 +9836,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8922,7 +9844,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8938,7 +9860,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8946,7 +9868,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8954,7 +9876,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,7 +9884,23 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8989,7 +9927,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9005,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9013,7 +9951,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9021,10 +9959,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9032,7 +9970,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,13 +9978,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,11 +9992,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9066,11 +10004,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9078,11 +10016,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,11 +10028,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9102,7 +10040,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9110,7 +10048,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>257</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9150,11 +10088,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,7 +10100,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9170,7 +10108,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,7 +10116,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9186,7 +10124,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,7 +10132,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9202,7 +10140,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9210,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9226,7 +10164,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9267,7 +10205,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9299,7 +10237,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,7 +10269,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9339,7 +10277,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9347,7 +10285,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9355,7 +10293,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9363,7 +10301,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9382,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,10 +10339,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9412,10 +10350,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,10 +10361,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9434,10 +10372,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9445,10 +10383,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9456,10 +10394,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,10 +10405,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,10 +10416,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9489,10 +10427,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9500,7 +10438,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -9511,10 +10449,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9522,10 +10460,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9533,7 +10471,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9541,7 +10479,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9549,7 +10487,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9565,7 +10503,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,7 +10511,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9581,7 +10519,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,7 +10527,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,7 +10535,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9605,7 +10543,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,7 +10559,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9629,7 +10567,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9637,7 +10575,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,7 +10591,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9693,7 +10631,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,7 +10647,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,7 +10655,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9741,7 +10679,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9749,7 +10687,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9757,7 +10695,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,7 +10719,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9789,7 +10727,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,7 +10735,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9813,7 +10751,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,7 +10759,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,7 +10767,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -9853,10 +10791,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9872,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9880,7 +10818,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,10 +10826,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9899,209 +10837,215 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>41</v>
+        <v>285</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>230</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>217</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -10109,7 +11053,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -10117,31 +11061,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -10149,93 +11093,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10246,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10257,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10268,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10279,7 +11220,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10290,7 +11231,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +11242,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,7 +11253,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10323,7 +11264,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,7 +11275,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10345,7 +11286,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,7 +11297,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10364,7 +11305,7 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>99</v>
@@ -10375,10 +11316,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,43 +11327,34 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,7 +11362,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,7 +11370,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10446,7 +11378,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10454,7 +11386,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10462,7 +11394,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10470,7 +11402,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10478,31 +11410,31 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10510,7 +11442,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>83</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10518,7 +11450,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10526,7 +11458,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10534,7 +11466,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10542,7 +11474,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10550,7 +11482,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10558,7 +11490,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10566,31 +11498,31 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,7 +11530,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10606,7 +11538,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10614,7 +11546,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10622,7 +11554,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10630,7 +11562,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10638,7 +11570,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10646,7 +11578,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10654,7 +11586,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10662,7 +11594,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,7 +11602,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10678,7 +11610,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>236</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10686,7 +11618,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10694,7 +11626,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,51 +11634,11 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -10766,10 +11658,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10785,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10793,7 +11685,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10801,10 +11693,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10812,53 +11704,51 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>293</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -10867,151 +11757,148 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>275</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0</v>
@@ -11019,16 +11906,15 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -11036,15 +11922,15 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -11052,15 +11938,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -11068,90 +11954,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>279</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11162,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11173,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11192,10 +12081,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11203,10 +12092,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11214,10 +12103,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11225,10 +12114,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11236,10 +12125,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11247,10 +12136,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11258,10 +12147,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11269,10 +12158,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11280,10 +12169,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>284</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11291,42 +12180,54 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11334,7 +12235,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11342,7 +12243,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>288</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11350,7 +12251,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11358,7 +12259,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11366,47 +12267,47 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,7 +12315,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11422,7 +12323,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11430,7 +12331,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11438,63 +12339,63 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11502,7 +12403,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11510,7 +12411,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11518,7 +12419,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>293</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11526,7 +12427,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>294</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,7 +12435,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11542,7 +12443,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11558,7 +12459,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11566,7 +12467,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11574,7 +12475,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11582,11 +12483,75 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>296</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -11609,7 +12574,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11625,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11633,7 +12598,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11641,10 +12606,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11652,7 +12617,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11660,13 +12625,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11674,11 +12639,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11686,11 +12651,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11698,11 +12663,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11710,11 +12675,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11722,7 +12687,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11730,7 +12695,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11770,11 +12735,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11782,7 +12747,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11790,7 +12755,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11798,7 +12763,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11806,7 +12771,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11814,7 +12779,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11846,7 +12811,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11862,7 +12827,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -11919,7 +12884,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11951,7 +12916,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,7 +12924,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11967,7 +12932,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11975,7 +12940,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11983,7 +12948,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12002,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12065,7 +13030,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>118</v>
@@ -12076,10 +13041,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12087,7 +13052,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>119</v>
@@ -12098,10 +13063,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12109,10 +13074,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12120,10 +13085,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12131,10 +13096,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,7 +13107,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12150,7 +13115,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12158,7 +13123,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12182,7 +13147,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12190,7 +13155,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12198,7 +13163,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12206,7 +13171,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12334,7 +13299,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,7 +13307,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12350,7 +13315,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12358,7 +13323,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12366,7 +13331,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12374,7 +13339,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12382,7 +13347,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12390,7 +13355,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12398,7 +13363,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12406,7 +13371,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12414,7 +13379,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12422,7 +13387,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">Quick Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Featherdance</t>
+    <t xml:space="preserve">Feather dance</t>
   </si>
   <si>
     <t xml:space="preserve">Disarming Voice</t>
@@ -8225,8 +8225,8 @@
   </sheetPr>
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9049,7 +9049,7 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="393">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -627,9 +627,6 @@
   </si>
   <si>
     <t xml:space="preserve">Endeavor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feint Attack</t>
   </si>
   <si>
     <t xml:space="preserve">Mirror Move</t>
@@ -2155,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,10 +2168,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,10 +2187,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>36</v>
@@ -2204,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -2216,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -2228,7 +2225,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -2240,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -2260,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +2446,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,7 +2478,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2486,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,7 +2494,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2502,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,7 +2510,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2606,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,7 +2628,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,7 +2639,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,7 +2650,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,7 +2661,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2669,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,7 +2677,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2685,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2709,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +2717,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,7 +2725,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,7 +2733,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2861,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,7 +2885,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,7 +2893,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,7 +2901,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +2909,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,7 +2933,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,7 +2941,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,7 +2949,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2995,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,10 +3008,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -3042,7 +3039,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -3054,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -3066,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -3086,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3183,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,7 +3272,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +3304,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,7 +3312,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,7 +3320,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3328,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3336,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,7 +3432,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,7 +3454,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,7 +3465,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,7 +3476,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,7 +3487,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,7 +3498,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,7 +3509,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3520,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,7 +3531,7 @@
         <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3539,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3547,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,7 +3555,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,7 +3579,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +3587,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,7 +3603,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3611,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,7 +3739,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,7 +3763,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,7 +3771,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,7 +3779,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,7 +3787,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3811,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,7 +3819,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,7 +3827,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,7 +3835,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +3843,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,7 +3851,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3897,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,10 +3910,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,10 +3929,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
@@ -3946,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -3958,7 +3955,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -3970,7 +3967,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -3982,7 +3979,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -4002,7 +3999,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,7 +4188,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,7 +4220,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,7 +4228,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,7 +4236,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,7 +4244,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,7 +4252,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4381,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,7 +4392,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,7 +4414,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,7 +4422,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,7 +4430,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4438,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,7 +4446,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,7 +4462,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,7 +4478,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,7 +4486,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,7 +4494,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,7 +4502,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,7 +4510,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4526,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,7 +4534,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,7 +4550,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,7 +4558,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4574,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,7 +4582,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,7 +4590,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,7 +4686,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,7 +4702,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4710,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4718,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,7 +4750,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +4758,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,10 +4833,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,7 +4844,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4855,10 +4852,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>36</v>
@@ -4869,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -4881,7 +4878,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -4893,7 +4890,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -4905,7 +4902,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -4925,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,7 +5111,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +5143,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,7 +5151,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5159,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5170,7 +5167,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5175,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,7 +5304,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +5315,7 @@
         <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,7 +5337,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,7 +5345,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5353,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,7 +5361,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,7 +5369,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,7 +5385,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5401,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,7 +5409,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,7 +5417,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,7 +5425,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,7 +5433,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,7 +5449,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,7 +5457,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5473,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5484,7 +5481,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,7 +5497,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,7 +5505,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +5513,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,7 +5609,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5625,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,7 +5633,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,7 +5641,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,7 +5673,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5681,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,10 +5756,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5770,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,7 +5775,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -5790,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -5802,7 +5799,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -5814,7 +5811,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -5834,7 +5831,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,7 +5931,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,7 +6020,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,7 +6052,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,7 +6060,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,7 +6068,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,7 +6076,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6087,7 +6084,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,7 +6147,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6158,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,7 +6213,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,7 +6224,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6249,7 +6246,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,7 +6257,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,7 +6268,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6279,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6290,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6301,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,7 +6309,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,7 +6317,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6325,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,7 +6333,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,7 +6349,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,7 +6365,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,7 +6373,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,7 +6381,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,7 +6389,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,7 +6397,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6413,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,7 +6421,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6440,7 +6437,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,7 +6445,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,7 +6461,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6472,7 +6469,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6477,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,7 +6573,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6592,7 +6589,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,7 +6597,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,7 +6605,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +6637,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,7 +6645,7 @@
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8223,10 +8220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8775,7 +8772,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,7 +8780,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,7 +8788,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8807,7 +8804,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8815,7 +8812,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8823,7 +8820,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8836,10 +8833,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,7 +8844,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,7 +8852,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,7 +8860,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8871,7 +8868,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8879,7 +8876,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,7 +8884,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,7 +8892,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8903,15 +8900,15 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8919,7 +8916,7 @@
         <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,7 +8924,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8935,7 +8932,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,7 +8940,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,7 +8948,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8959,7 +8956,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8967,7 +8964,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8983,7 +8980,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,7 +8988,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8999,7 +8996,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,7 +9004,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,15 +9012,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -9049,7 +9038,7 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9066,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9074,7 +9063,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,7 +9074,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,7 +9082,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9101,7 +9090,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -9115,7 +9104,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -9127,7 +9116,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -9139,7 +9128,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -9151,7 +9140,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -9171,7 +9160,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9352,7 +9341,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9408,7 +9397,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9416,7 +9405,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9443,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9476,7 +9465,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9487,7 +9476,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9498,7 +9487,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,7 +9498,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9531,7 +9520,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9542,7 +9531,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9553,7 +9542,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9564,7 +9553,7 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9572,7 +9561,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9580,7 +9569,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9604,7 +9593,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9620,7 +9609,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9628,7 +9617,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9636,7 +9625,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9652,7 +9641,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9668,7 +9657,7 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9684,7 +9673,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9692,7 +9681,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9764,7 +9753,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,7 +9801,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9820,7 +9809,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9836,7 +9825,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9844,7 +9833,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9884,7 +9873,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9892,7 +9881,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9900,7 +9889,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9943,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9951,7 +9940,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9959,10 +9948,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9970,7 +9959,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9978,10 +9967,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
@@ -9992,7 +9981,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -10004,7 +9993,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -10016,7 +10005,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -10028,7 +10017,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -10140,7 +10129,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10148,7 +10137,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10237,7 +10226,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,7 +10258,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,7 +10266,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10285,7 +10274,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,7 +10282,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +10290,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10320,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10331,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10342,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10353,7 +10342,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10364,7 +10353,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10375,7 +10364,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10386,7 +10375,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +10386,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10408,7 +10397,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,7 +10408,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,7 +10419,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,7 +10441,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10463,7 +10452,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10471,7 +10460,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10487,7 +10476,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10503,7 +10492,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10511,7 +10500,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10519,7 +10508,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10527,7 +10516,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10535,7 +10524,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10543,7 +10532,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10559,7 +10548,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10567,7 +10556,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,7 +10564,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10631,7 +10620,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10647,7 +10636,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10679,7 +10668,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10695,7 +10684,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10719,7 +10708,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10751,7 +10740,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10759,7 +10748,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10767,7 +10756,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -10810,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10818,7 +10807,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10826,10 +10815,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10837,7 +10826,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10845,10 +10834,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>36</v>
@@ -10859,7 +10848,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -10871,7 +10860,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -10883,7 +10872,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -10895,7 +10884,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -10915,7 +10904,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11007,7 +10996,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11015,7 +11004,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11104,7 +11093,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11136,7 +11125,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11144,7 +11133,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11152,7 +11141,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11160,7 +11149,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11168,7 +11157,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11187,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11198,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11209,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11220,7 +11209,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11231,7 +11220,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11242,7 +11231,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11253,7 +11242,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11264,7 +11253,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11275,7 +11264,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11286,7 +11275,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11297,7 +11286,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11319,7 +11308,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11330,7 +11319,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11338,7 +11327,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11354,7 +11343,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11370,7 +11359,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11378,7 +11367,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11386,7 +11375,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11394,7 +11383,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11402,7 +11391,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11410,7 +11399,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11426,7 +11415,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11434,7 +11423,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,7 +11431,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,7 +11487,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11514,7 +11503,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11546,7 +11535,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11562,7 +11551,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11586,7 +11575,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11618,7 +11607,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11626,7 +11615,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11634,7 +11623,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -11677,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11685,7 +11674,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11693,10 +11682,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11704,7 +11693,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11712,7 +11701,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -11724,7 +11713,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -11736,7 +11725,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -11748,7 +11737,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -11768,7 +11757,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11860,7 +11849,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11868,7 +11857,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,7 +11946,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,7 +11978,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11997,7 +11986,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12005,7 +11994,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12013,7 +12002,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12021,7 +12010,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12040,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12051,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12062,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12073,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12084,7 +12073,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12095,7 +12084,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12106,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12117,7 +12106,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12128,7 +12117,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12139,7 +12128,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12150,7 +12139,7 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12161,7 +12150,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12183,7 +12172,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12194,7 +12183,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12205,7 +12194,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12216,7 +12205,7 @@
         <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12227,7 +12216,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12235,7 +12224,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12251,7 +12240,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12267,7 +12256,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12275,7 +12264,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12283,7 +12272,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12291,7 +12280,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,7 +12288,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,7 +12296,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12323,7 +12312,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12331,7 +12320,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12339,7 +12328,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12395,7 +12384,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12411,7 +12400,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12443,7 +12432,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12459,7 +12448,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12483,7 +12472,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12515,7 +12504,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12523,7 +12512,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12531,7 +12520,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12539,7 +12528,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12547,7 +12536,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -12590,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12598,7 +12587,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12606,10 +12595,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12617,7 +12606,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12625,10 +12614,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>16</v>
@@ -12639,7 +12628,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -12651,7 +12640,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -12663,7 +12652,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -12675,7 +12664,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
@@ -12695,7 +12684,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,7 +12873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12916,7 +12905,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,7 +12913,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12932,7 +12921,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12940,7 +12929,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12948,7 +12937,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12967,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13044,7 +13033,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13066,7 +13055,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13077,7 +13066,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,7 +13077,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13099,7 +13088,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13107,7 +13096,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13115,7 +13104,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13123,7 +13112,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13147,7 +13136,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13155,7 +13144,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13163,7 +13152,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13171,7 +13160,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13299,7 +13288,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13323,7 +13312,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13331,7 +13320,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13339,7 +13328,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13347,7 +13336,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13371,7 +13360,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13379,7 +13368,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13387,7 +13376,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">claim unattended trinkets as its own. MEOWSY</t>
   </si>
   <si>
-    <t xml:space="preserve">likes polishing its trainer’s BADGES and</t>
+    <t xml:space="preserve">likes polishing its trainer's BADGES and</t>
   </si>
   <si>
     <t xml:space="preserve">brags about them to others of its kind.</t>
@@ -8222,7 +8222,7 @@
   </sheetPr>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -9038,7 +9038,7 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/pokemon/new_species.xlsx
+++ b/pokemon/new_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trifox" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,15 +13,16 @@
     <sheet name="Golppy" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Chicks" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Meowsy" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Clone_Bulbasaur" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Clone_Ivysaur" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Clone_Venusaur" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Clone_Charmander" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Clone_Charmeleon" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Clone_Charizard" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Clone_Squirtle" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Clone_Wartortle" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Clone_Blastoise" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Para" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Clone_Bulbasaur" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Clone_Ivysaur" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Clone_Venusaur" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Clone_Charmander" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Clone_Charmeleon" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Clone_Charizard" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Clone_Squirtle" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Clone_Wartortle" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Clone_Blastoise" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="419">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -761,6 +762,126 @@
     <t xml:space="preserve">Flash</t>
   </si>
   <si>
+    <t xml:space="preserve">PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYMPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It lives and feeds on mushrooms. A swarm of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA will often squabble on the best fungi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The choice of mushroom will sometimes affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its behaviour and personality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE_GRASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_TINY_MUSHROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_BIG_MUSHROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ABILITY_EFFECT_SPORE,ABILITY_DRY_SKIN}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABILITY_DAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY_COLOR_RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stun Spore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poison Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leech Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fury Cutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leech Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giga Drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Bite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fell Stinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassy Terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal Claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rototiller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet Scent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sludge Bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Smash</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLONE_BULBASAUR</t>
   </si>
   <si>
@@ -794,9 +915,6 @@
     <t xml:space="preserve">its strategy far ahead before moving.</t>
   </si>
   <si>
-    <t xml:space="preserve">TYPE_GRASS</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYPE_POISON</t>
   </si>
   <si>
@@ -821,15 +939,9 @@
     <t xml:space="preserve">Acid Spray</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vine Whip</t>
   </si>
   <si>
-    <t xml:space="preserve">Leech Seed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aromatherapy</t>
   </si>
   <si>
@@ -839,24 +951,9 @@
     <t xml:space="preserve">Synthesis</t>
   </si>
   <si>
-    <t xml:space="preserve">Poison Powder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingrain</t>
   </si>
   <si>
-    <t xml:space="preserve">Giga Drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet Scent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sludge Bomb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Beam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Petal Dance</t>
   </si>
   <si>
@@ -866,21 +963,12 @@
     <t xml:space="preserve">Power Whip</t>
   </si>
   <si>
-    <t xml:space="preserve">Spore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sludge Wave</t>
   </si>
   <si>
-    <t xml:space="preserve">Fury Cutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swords Dance</t>
   </si>
   <si>
-    <t xml:space="preserve">Bullet Seed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strength</t>
   </si>
   <si>
@@ -968,9 +1056,6 @@
     <t xml:space="preserve">ABILITY_TOUGH_CLAWS</t>
   </si>
   <si>
-    <t xml:space="preserve">BODY_COLOR_RED</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crush Claw</t>
   </si>
   <si>
@@ -1010,9 +1095,6 @@
     <t xml:space="preserve">Brick Break</t>
   </si>
   <si>
-    <t xml:space="preserve">Rock Smash</t>
-  </si>
-  <si>
     <t xml:space="preserve">Charmeleon</t>
   </si>
   <si>
@@ -1155,9 +1237,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Punch</t>
@@ -2136,7 +2215,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2152,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,10 +2247,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,13 +2266,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,11 +2280,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,11 +2292,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,11 +2304,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,11 +2316,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,11 +2376,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,7 +2396,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2404,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,7 +2412,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,7 +2420,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2452,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,7 +2468,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -2446,7 +2525,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,7 +2557,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,7 +2565,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2573,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2581,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2671,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>118</v>
@@ -2603,10 +2682,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,7 +2693,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>119</v>
@@ -2625,10 +2704,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +2715,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,10 +2726,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2737,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,7 +2764,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,7 +2788,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2796,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2804,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,7 +2812,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,7 +2940,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,7 +2964,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,7 +2980,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +3020,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,7 +3028,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2973,10 +3052,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2992,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,10 +3087,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,217 +3098,223 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">LEN(B5)</f>
-        <v>40</v>
+        <v>354</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>338</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>256</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
-        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>339</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0</v>
@@ -3237,7 +3322,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -3245,7 +3330,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -3253,15 +3338,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -3269,93 +3354,90 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B43" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,10 +3467,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,10 +3478,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,10 +3489,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,10 +3500,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,10 +3511,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,10 +3522,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,10 +3533,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>340</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,10 +3544,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,10 +3555,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,7 +3569,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,40 +3580,31 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>341</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>342</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,7 +3612,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,7 +3620,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,7 +3628,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3636,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,7 +3644,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,39 +3652,39 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>319</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>321</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>344</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +3692,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,7 +3700,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,7 +3708,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +3716,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,39 +3724,39 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,7 +3764,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,7 +3772,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3780,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3788,7 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,7 +3796,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,7 +3812,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,7 +3820,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>164</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,7 +3828,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +3836,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>323</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,7 +3844,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,7 +3852,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,7 +3860,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,67 +3868,11 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>346</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="C6:C9">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -3875,10 +3892,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3894,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,10 +3927,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,142 +3938,136 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>361</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">LEN(B5)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <f aca="false">LEN(B9)</f>
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B15:B20))</f>
+        <v>total: 540</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>70</v>
@@ -4064,72 +4075,72 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -4137,15 +4148,15 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0</v>
@@ -4153,7 +4164,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>0</v>
@@ -4161,15 +4172,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -4177,90 +4188,93 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>357</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>62</v>
+      <c r="A43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>358</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,10 +4304,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>359</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,10 +4315,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>360</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,10 +4326,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>361</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,10 +4337,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>362</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,10 +4348,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,10 +4359,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,10 +4370,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>149</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,10 +4381,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,10 +4392,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,10 +4403,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,10 +4414,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,26 +4425,32 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,7 +4458,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>368</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4466,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4474,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +4482,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>369</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,7 +4490,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4498,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4506,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4514,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4522,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4530,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4546,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,7 +4554,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4562,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4570,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>375</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,7 +4586,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,7 +4594,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4582,39 +4602,39 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>377</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4642,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4650,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4658,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>164</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,7 +4666,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,7 +4674,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4682,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +4690,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,7 +4706,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>323</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4714,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4722,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,7 +4730,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,7 +4738,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,7 +4746,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4754,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4762,7 @@
         <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>170</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,35 +4770,11 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>172</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C9">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>44</formula>
     </cfRule>
@@ -4801,7 +4797,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4817,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,10 +4829,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4844,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,13 +4848,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,11 +4862,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>380</v>
+        <v>289</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,11 +4874,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,11 +4886,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,11 +4898,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4910,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,7 +4918,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,11 +4958,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 420</v>
+        <v>total: 320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +4970,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,7 +4978,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,7 +4986,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +4994,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,7 +5002,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,7 +5034,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,7 +5059,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,7 +5107,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,7 +5139,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,7 +5147,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,7 +5155,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,7 +5163,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,7 +5171,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,10 +5209,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,10 +5220,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5264,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>97</v>
@@ -5279,7 +5275,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>149</v>
@@ -5290,7 +5286,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>152</v>
@@ -5301,10 +5297,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,10 +5308,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,7 +5319,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>154</v>
@@ -5334,10 +5330,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5341,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,7 +5349,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,7 +5357,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,7 +5381,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5401,7 +5397,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,7 +5405,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,7 +5413,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,7 +5421,7 @@
         <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5429,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,7 +5445,7 @@
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,7 +5477,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,7 +5493,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5505,7 +5501,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,7 +5509,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +5605,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,7 +5621,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,7 +5669,7 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5681,7 +5677,7 @@
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5721,6 +5717,929 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">LEN(B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">LEN(B7)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">LEN(B8)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">LEN(B9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
+        <v>total: 420</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5740,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,7 +6667,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,10 +6675,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,7 +6686,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5775,7 +6694,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">LEN(B5)</f>
@@ -5787,7 +6706,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
@@ -5799,7 +6718,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -5811,7 +6730,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -5831,7 +6750,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,7 +6850,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,7 +6939,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,7 +6971,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,7 +6979,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,7 +6987,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,7 +6995,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +7003,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,7 +7066,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,7 +7077,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,7 +7132,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,7 +7143,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,7 +7165,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +7176,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,7 +7187,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,7 +7198,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,7 +7209,7 @@
         <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,7 +7220,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +7228,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,7 +7236,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,7 +7244,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,7 +7268,7 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,7 +7284,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,7 +7292,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,7 +7308,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,7 +7316,7 @@
         <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6413,7 +7332,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +7364,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,7 +7380,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,7 +7388,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,7 +7396,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,7 +7492,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,7 +7508,7 @@
         <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,7 +7556,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +7564,7 @@
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,8 +7606,8 @@
   </sheetPr>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7425,7 +8344,7 @@
   </sheetPr>
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8222,7 +9141,7 @@
   </sheetPr>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -9038,7 +9957,7 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9913,16 +10832,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="40.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.48"/>
   </cols>
@@ -9948,10 +10867,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9959,7 +10878,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9967,13 +10886,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9981,11 +10900,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,7 +10912,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">LEN(B7)</f>
@@ -10005,7 +10924,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">LEN(B8)</f>
@@ -10017,11 +10936,11 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">LEN(B9)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,7 +10948,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,7 +10956,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10077,11 +10996,11 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="str">
         <f aca="false">CONCATENATE("total: ",SUM(B16:B21))</f>
-        <v>total: 320</v>
+        <v>total: 200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10089,7 +11008,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,7 +11024,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10113,7 +11032,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10121,7 +11040,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10129,7 +11048,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,7 +11056,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10163,15 +11082,15 @@
       <c r="B26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -10194,7 +11113,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10210,7 +11129,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10218,7 +11137,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10226,7 +11145,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,7 +11177,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10266,7 +11185,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10274,7 +11193,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,7 +11201,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10290,7 +11209,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10309,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10320,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10328,10 +11247,10 @@
         <v>63</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10339,10 +11258,10 @@
         <v>63</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10350,10 +11269,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10361,10 +11280,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,10 +11291,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10383,10 +11302,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10394,10 +11313,10 @@
         <v>63</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10405,10 +11324,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10416,10 +11335,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10427,10 +11346,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,10 +11357,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10449,10 +11368,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10460,7 +11379,7 @@
         <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10468,7 +11387,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10476,7 +11395,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10484,7 +11403,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10492,7 +11411,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10500,7 +11419,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10508,7 +11427,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10516,7 +11435,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10524,7 +11443,7 @@
         <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10532,39 +11451,39 @@
         <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10572,7 +11491,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10580,7 +11499,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10588,7 +11507,7 @@
         <v>82</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10596,7 +11515,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10604,7 +11523,7 @@
         <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10612,7 +11531,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10620,47 +11539,47 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10668,7 +11587,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10676,7 +11595,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10684,7 +11603,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10692,7 +11611,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10700,7 +11619,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10708,7 +11627,7 @@
         <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10716,7 +11635,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10724,7 +11643,7 @@
         <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10732,7 +11651,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10740,7 +11659,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10748,7 +11667,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10756,7 +11675,79 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -10783,7 +11774,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10799,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10815,10 +11806,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10826,7 +11817,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10834,13 +11825,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10848,11 +11839,11 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">LEN(B6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10860,11 +11851,11 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C7" 